--- a/FinancialDataAnalysisWithPython/technical.xlsx
+++ b/FinancialDataAnalysisWithPython/technical.xlsx
@@ -1339,7 +1339,7 @@
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>98.35749799999999</c:v>
+                  <c:v>98.35749800000001</c:v>
                 </c:pt>
                 <c:pt idx="132">
                   <c:v>96.327499</c:v>
@@ -1357,7 +1357,7 @@
                   <c:v>95.477501</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>95.91999799999999</c:v>
+                  <c:v>95.91999800000001</c:v>
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>95.75250200000001</c:v>
@@ -1432,7 +1432,7 @@
                   <c:v>82.875</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>80.58000200000001</c:v>
+                  <c:v>80.58000199999999</c:v>
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>81.279999</c:v>
@@ -1501,7 +1501,7 @@
                   <c:v>73.290001</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>72.26750200000001</c:v>
+                  <c:v>72.26750199999999</c:v>
                 </c:pt>
                 <c:pt idx="186">
                   <c:v>73.449997</c:v>
@@ -1528,7 +1528,7 @@
                   <c:v>67.092499</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>69.23249799999999</c:v>
+                  <c:v>69.23249800000001</c:v>
                 </c:pt>
                 <c:pt idx="195">
                   <c:v>70.699997</c:v>
@@ -1537,7 +1537,7 @@
                   <c:v>71.672501</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>71.10749799999999</c:v>
+                  <c:v>71.10749800000001</c:v>
                 </c:pt>
                 <c:pt idx="198">
                   <c:v>71.762497</c:v>
@@ -1549,10 +1549,10 @@
                   <c:v>66.99749799999999</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>66.51750200000001</c:v>
+                  <c:v>66.51750199999999</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>64.85749799999999</c:v>
+                  <c:v>64.85749800000001</c:v>
                 </c:pt>
                 <c:pt idx="203">
                   <c:v>65.61750000000001</c:v>
@@ -1609,7 +1609,7 @@
                   <c:v>62.057499</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>68.85749799999999</c:v>
+                  <c:v>68.85749800000001</c:v>
                 </c:pt>
                 <c:pt idx="222">
                   <c:v>71.334999</c:v>
@@ -1627,7 +1627,7 @@
                   <c:v>75.68499799999999</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>72.33000200000001</c:v>
+                  <c:v>72.33000199999999</c:v>
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>74.702499</c:v>
@@ -1645,7 +1645,7 @@
                   <c:v>72.019997</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>74.54499799999999</c:v>
+                  <c:v>74.54499800000001</c:v>
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>78.262497</c:v>
@@ -2498,736 +2498,736 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="253"/>
                 <c:pt idx="0">
-                  <c:v>133.6540007999999</c:v>
+                  <c:v>133.6540008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132.3440001999999</c:v>
+                  <c:v>132.3440002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.2570006999999</c:v>
+                  <c:v>131.2570007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130.4419997999999</c:v>
+                  <c:v>130.4419998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>129.4150000999999</c:v>
+                  <c:v>129.4150001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>129.3129996999999</c:v>
+                  <c:v>129.3129997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>129.4709998999999</c:v>
+                  <c:v>129.4709999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>130.0260001999999</c:v>
+                  <c:v>130.0260002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130.5069998999999</c:v>
+                  <c:v>130.5069999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>130.9049994999999</c:v>
+                  <c:v>130.9049995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>131.6939993999999</c:v>
+                  <c:v>131.6939994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>131.9929998999999</c:v>
+                  <c:v>131.9929999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>131.8840002999999</c:v>
+                  <c:v>131.8840003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>131.9800009999998</c:v>
+                  <c:v>131.980001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>132.1430007999999</c:v>
+                  <c:v>132.1430008</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>131.7080016999999</c:v>
+                  <c:v>131.7080017</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>131.6370009999999</c:v>
+                  <c:v>131.637001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>131.1490005999999</c:v>
+                  <c:v>131.1490006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>130.5650001999999</c:v>
+                  <c:v>130.5650002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>129.2560005999999</c:v>
+                  <c:v>129.2560006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>127.8280007999999</c:v>
+                  <c:v>127.8280008</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>126.9550004999999</c:v>
+                  <c:v>126.9550005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>126.0369996999999</c:v>
+                  <c:v>126.0369997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>125.2869988999999</c:v>
+                  <c:v>125.2869989</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>124.8389992999999</c:v>
+                  <c:v>124.8389993</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>124.3979988999999</c:v>
+                  <c:v>124.3979989</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>123.8219993999999</c:v>
+                  <c:v>123.8219994</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>123.3489997999999</c:v>
+                  <c:v>123.3489998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>122.8330001999999</c:v>
+                  <c:v>122.8330002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>122.5600005999999</c:v>
+                  <c:v>122.5600006</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>121.9779997999999</c:v>
+                  <c:v>121.9779998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>121.2569998999999</c:v>
+                  <c:v>121.2569999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>120.5959997999999</c:v>
+                  <c:v>120.5959998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>119.5429998999999</c:v>
+                  <c:v>119.5429999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>118.9019994999999</c:v>
+                  <c:v>118.9019995</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>118.5409993999999</c:v>
+                  <c:v>118.5409994</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>118.0499990999999</c:v>
+                  <c:v>118.0499991</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>117.6809987999999</c:v>
+                  <c:v>117.6809988</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>117.4389989999999</c:v>
+                  <c:v>117.438999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>117.4599988999999</c:v>
+                  <c:v>117.4599989</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>117.7219991999999</c:v>
+                  <c:v>117.7219992</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>118.0679990999999</c:v>
+                  <c:v>118.0679991</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>118.1479993999999</c:v>
+                  <c:v>118.1479994</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>118.3949995999999</c:v>
+                  <c:v>118.3949996</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>118.5300001999999</c:v>
+                  <c:v>118.5300002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>118.5690001999999</c:v>
+                  <c:v>118.5690002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>118.2609999999999</c:v>
+                  <c:v>118.261</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>117.3660002999999</c:v>
+                  <c:v>117.3660003</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>116.2129996999999</c:v>
+                  <c:v>116.2129997</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>115.1729995999999</c:v>
+                  <c:v>115.1729996</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>114.7839996999999</c:v>
+                  <c:v>114.7839997</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>113.9549995999999</c:v>
+                  <c:v>113.9549996</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>114.0179992999999</c:v>
+                  <c:v>114.0179993</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>113.8909995999999</c:v>
+                  <c:v>113.8909996</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>113.5259994999999</c:v>
+                  <c:v>113.5259995</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>113.1979995999999</c:v>
+                  <c:v>113.1979996</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>113.3900001999999</c:v>
+                  <c:v>113.3900002</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>114.0970001999999</c:v>
+                  <c:v>114.0970002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>114.8180007999999</c:v>
+                  <c:v>114.8180008</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>115.8340003999999</c:v>
+                  <c:v>115.8340004</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>116.3730002999999</c:v>
+                  <c:v>116.3730003</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>117.3720007999999</c:v>
+                  <c:v>117.3720008</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>117.8220007999999</c:v>
+                  <c:v>117.8220008</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>118.7570006999999</c:v>
+                  <c:v>118.7570007</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>118.9500006999999</c:v>
+                  <c:v>118.9500007</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>118.8720007999999</c:v>
+                  <c:v>118.8720008</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>118.6930006999999</c:v>
+                  <c:v>118.6930007</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>118.2580008999999</c:v>
+                  <c:v>118.2580009</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>118.3100005999999</c:v>
+                  <c:v>118.3100006</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>117.7100005999999</c:v>
+                  <c:v>117.7100006</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>117.3180007999999</c:v>
+                  <c:v>117.3180008</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>116.7800003999999</c:v>
+                  <c:v>116.7800004</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>116.0790001999999</c:v>
+                  <c:v>116.0790002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>115.1349998999999</c:v>
+                  <c:v>115.1349999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>114.6659996999999</c:v>
+                  <c:v>114.6659997</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>113.9909996999999</c:v>
+                  <c:v>113.9909997</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>113.1949997999999</c:v>
+                  <c:v>113.1949998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>113.0599991999999</c:v>
+                  <c:v>113.0599992</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>112.4179993999999</c:v>
+                  <c:v>112.4179994</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>111.7999992999999</c:v>
+                  <c:v>111.7999993</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>111.1549987999998</c:v>
+                  <c:v>111.1549988</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>110.7869986999998</c:v>
+                  <c:v>110.7869987</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>110.9319991999999</c:v>
+                  <c:v>110.9319992</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>110.9719993999999</c:v>
+                  <c:v>110.9719994</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>110.9439994999999</c:v>
+                  <c:v>110.9439995</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>111.4709991999999</c:v>
+                  <c:v>111.4709992</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>112.4909988999999</c:v>
+                  <c:v>112.4909989</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>112.5919990999999</c:v>
+                  <c:v>112.5919991</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>113.6799987999999</c:v>
+                  <c:v>113.6799988</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>115.0839988999999</c:v>
+                  <c:v>115.0839989</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>117.1899986999999</c:v>
+                  <c:v>117.1899987</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>119.3949982999999</c:v>
+                  <c:v>119.3949983</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>120.7449974999999</c:v>
+                  <c:v>120.7449975</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>121.6897476999999</c:v>
+                  <c:v>121.6897477</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>122.9907478999999</c:v>
+                  <c:v>122.9907479</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>124.2939979999998</c:v>
+                  <c:v>124.293998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>125.0444976999999</c:v>
+                  <c:v>125.0444977</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>126.3482474999999</c:v>
+                  <c:v>126.3482475</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>126.6892478999999</c:v>
+                  <c:v>126.6892479</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>126.4287483999999</c:v>
+                  <c:v>126.4287484</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>124.8594986999999</c:v>
+                  <c:v>124.8594987</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>122.9977493999999</c:v>
+                  <c:v>122.9977494</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>121.5544998999999</c:v>
+                  <c:v>121.5544999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>120.5644996999999</c:v>
+                  <c:v>120.5644997</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>119.5644996999999</c:v>
+                  <c:v>119.5644997</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>118.2132499999999</c:v>
+                  <c:v>118.21325</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>116.6682502999999</c:v>
+                  <c:v>116.6682503</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>115.3552505999999</c:v>
+                  <c:v>115.3552506</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>114.0295005999999</c:v>
+                  <c:v>114.0295006</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>113.5922499999999</c:v>
+                  <c:v>113.59225</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>113.0277502999999</c:v>
+                  <c:v>113.0277503</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>112.4380003999999</c:v>
+                  <c:v>112.4380004</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>111.8710005999999</c:v>
+                  <c:v>111.8710006</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>111.0062506999999</c:v>
+                  <c:v>111.0062507</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>109.1242506999999</c:v>
+                  <c:v>109.1242507</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>107.3272505999999</c:v>
+                  <c:v>107.3272506</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>105.7150007999999</c:v>
+                  <c:v>105.7150008</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>103.9232504999999</c:v>
+                  <c:v>103.9232505</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>102.0734999999999</c:v>
+                  <c:v>102.0735</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>99.96775049999991</c:v>
+                  <c:v>99.96775049999999</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>98.68875039999992</c:v>
+                  <c:v>98.6887504</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>97.42225029999992</c:v>
+                  <c:v>97.4222503</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>96.36425009999991</c:v>
+                  <c:v>96.36425010000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>95.37099979999991</c:v>
+                  <c:v>95.37099979999999</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>95.40424949999991</c:v>
+                  <c:v>95.40424950000001</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>95.67274919999991</c:v>
+                  <c:v>95.6727492</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>96.05324929999992</c:v>
+                  <c:v>96.0532493</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>96.1199995999999</c:v>
+                  <c:v>96.1199996</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>96.4504995999999</c:v>
+                  <c:v>96.45049959999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>96.7412496999999</c:v>
+                  <c:v>96.7412497</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>96.5482496999999</c:v>
+                  <c:v>96.5482497</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>96.16549979999992</c:v>
+                  <c:v>96.16549979999999</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>95.67600019999992</c:v>
+                  <c:v>95.6760002</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>95.14599989999991</c:v>
+                  <c:v>95.14599990000001</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>94.59649959999993</c:v>
+                  <c:v>94.5964996</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>93.94399949999993</c:v>
+                  <c:v>93.94399949999999</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>93.28274919999993</c:v>
+                  <c:v>93.2827492</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>92.57574919999993</c:v>
+                  <c:v>92.5757492</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>92.10474929999994</c:v>
+                  <c:v>92.10474930000001</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>91.53099899999992</c:v>
+                  <c:v>91.53099899999999</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>91.15999909999992</c:v>
+                  <c:v>91.15999910000001</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>90.81449889999992</c:v>
+                  <c:v>90.8144989</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>90.21124869999991</c:v>
+                  <c:v>90.21124869999998</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>89.90174939999991</c:v>
+                  <c:v>89.9017494</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>89.58874969999991</c:v>
+                  <c:v>89.58874969999999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>89.27074969999993</c:v>
+                  <c:v>89.2707497</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>88.80099949999992</c:v>
+                  <c:v>88.8009995</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>88.43024909999991</c:v>
+                  <c:v>88.4302491</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>87.70674899999992</c:v>
+                  <c:v>87.706749</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>87.52624899999992</c:v>
+                  <c:v>87.52624899999999</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>86.9627487999999</c:v>
+                  <c:v>86.9627488</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>86.32749869999991</c:v>
+                  <c:v>86.32749870000001</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>85.87199869999991</c:v>
+                  <c:v>85.87199869999999</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>85.1367485999999</c:v>
+                  <c:v>85.13674859999999</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>84.47499859999991</c:v>
+                  <c:v>84.47499860000001</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>83.7564987999999</c:v>
+                  <c:v>83.7564988</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>83.22799919999991</c:v>
+                  <c:v>83.2279992</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>82.70649959999992</c:v>
+                  <c:v>82.7064996</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>82.26524979999991</c:v>
+                  <c:v>82.26524979999999</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>81.39699949999991</c:v>
+                  <c:v>81.39699949999999</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>80.71549999999992</c:v>
+                  <c:v>80.71549999999999</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>80.35125059999991</c:v>
+                  <c:v>80.35125059999999</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>79.98500079999991</c:v>
+                  <c:v>79.98500079999999</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>79.90775089999991</c:v>
+                  <c:v>79.90775090000001</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>79.6082513999999</c:v>
+                  <c:v>79.6082514</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>79.3987512999999</c:v>
+                  <c:v>79.3987513</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>79.0452508999999</c:v>
+                  <c:v>79.0452509</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>78.8352509999999</c:v>
+                  <c:v>78.835251</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>78.57025079999991</c:v>
+                  <c:v>78.57025080000001</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>78.40275129999989</c:v>
+                  <c:v>78.40275130000001</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>78.35975119999991</c:v>
+                  <c:v>78.35975120000001</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>78.14075089999992</c:v>
+                  <c:v>78.1407509</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>77.8130004999999</c:v>
+                  <c:v>77.8130005</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>77.34800029999991</c:v>
+                  <c:v>77.3480003</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>76.95849979999991</c:v>
+                  <c:v>76.9584998</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>76.41350009999991</c:v>
+                  <c:v>76.41350009999999</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>75.9475004999999</c:v>
+                  <c:v>75.9475005</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>75.5539999999999</c:v>
+                  <c:v>75.554</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>75.0560004999999</c:v>
+                  <c:v>75.0560005</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>74.2352500999999</c:v>
+                  <c:v>74.2352501</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>73.4392501999999</c:v>
+                  <c:v>73.43925019999999</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>72.76025009999989</c:v>
+                  <c:v>72.76025010000001</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>72.0425002999999</c:v>
+                  <c:v>72.0425003</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>71.4292503999999</c:v>
+                  <c:v>71.4292504</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>70.69950039999989</c:v>
+                  <c:v>70.69950040000001</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>70.2937500999999</c:v>
+                  <c:v>70.2937501</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>70.1369995999999</c:v>
+                  <c:v>70.1369996</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>69.9592499999999</c:v>
+                  <c:v>69.95925</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>69.87674949999989</c:v>
+                  <c:v>69.8767495</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>70.08849949999988</c:v>
+                  <c:v>70.0884995</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>69.84049919999988</c:v>
+                  <c:v>69.8404992</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>69.46599899999988</c:v>
+                  <c:v>69.465999</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>69.2419991999999</c:v>
+                  <c:v>69.2419992</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>68.8252487999999</c:v>
+                  <c:v>68.82524880000001</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>68.6777488999999</c:v>
+                  <c:v>68.6777489</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>67.7897491999999</c:v>
+                  <c:v>67.78974919999999</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>66.8429992999999</c:v>
+                  <c:v>66.8429993</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>65.6984992999999</c:v>
+                  <c:v>65.69849930000001</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>64.94499929999991</c:v>
+                  <c:v>64.94499929999999</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>64.13899949999991</c:v>
+                  <c:v>64.1389995</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>63.50124959999992</c:v>
+                  <c:v>63.50124960000001</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>63.26249989999992</c:v>
+                  <c:v>63.2624999</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>62.74874979999991</c:v>
+                  <c:v>62.74874980000001</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>62.43500009999993</c:v>
+                  <c:v>62.43500009999999</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>61.48249999999992</c:v>
+                  <c:v>61.4825</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>61.17824999999991</c:v>
+                  <c:v>61.17825000000001</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>61.17450019999992</c:v>
+                  <c:v>61.1745002</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>61.31850009999992</c:v>
+                  <c:v>61.31850010000001</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>61.28275029999993</c:v>
+                  <c:v>61.2827503</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>60.96775059999993</c:v>
+                  <c:v>60.9677506</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>61.72350049999994</c:v>
+                  <c:v>61.7235005</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>61.46825029999994</c:v>
+                  <c:v>61.4682503</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>62.21599999999994</c:v>
+                  <c:v>62.21599999999999</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>63.17749979999994</c:v>
+                  <c:v>63.17749980000001</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>64.22250019999994</c:v>
+                  <c:v>64.2225002</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>65.71725009999994</c:v>
+                  <c:v>65.7172501</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>66.92075039999995</c:v>
+                  <c:v>66.9207504</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>68.32250019999994</c:v>
+                  <c:v>68.32250019999999</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>69.23400039999993</c:v>
+                  <c:v>69.2340004</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>70.64900009999994</c:v>
+                  <c:v>70.64900009999999</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>70.53374969999993</c:v>
+                  <c:v>70.5337497</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>71.16599949999993</c:v>
+                  <c:v>71.1659995</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>71.59649949999994</c:v>
+                  <c:v>71.59649949999999</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>71.66499929999993</c:v>
+                  <c:v>71.66499930000001</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>72.46524879999993</c:v>
+                  <c:v>72.4652488</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>73.06574849999993</c:v>
+                  <c:v>73.06574850000001</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>73.75024789999993</c:v>
+                  <c:v>73.75024790000001</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>74.27224799999993</c:v>
+                  <c:v>74.272248</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>75.01424779999994</c:v>
+                  <c:v>75.01424779999999</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>75.66774819999993</c:v>
+                  <c:v>75.66774820000001</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>76.95549849999993</c:v>
+                  <c:v>76.9554985</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>78.29749909999994</c:v>
+                  <c:v>78.29749910000001</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>78.97149889999994</c:v>
+                  <c:v>78.9714989</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>79.80824889999994</c:v>
+                  <c:v>79.8082489</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>80.35449909999996</c:v>
+                  <c:v>80.3544991</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>80.65849919999997</c:v>
+                  <c:v>80.65849920000001</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>80.68724979999996</c:v>
+                  <c:v>80.6872498</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>80.56800009999996</c:v>
+                  <c:v>80.56800010000001</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>80.30950019999996</c:v>
+                  <c:v>80.3095002</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>79.92350009999997</c:v>
+                  <c:v>79.9235001</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>79.89850009999996</c:v>
+                  <c:v>79.89850010000001</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>79.82699969999997</c:v>
+                  <c:v>79.82699970000002</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>79.77900019999997</c:v>
+                  <c:v>79.77900020000001</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>79.46400079999998</c:v>
+                  <c:v>79.46400079999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4161,16 +4161,16 @@
                   <c:v>2.489083440358002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.529310441912813</c:v>
+                  <c:v>2.529310441912827</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.658919808378599</c:v>
+                  <c:v>2.658919808378613</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.225527838909429</c:v>
+                  <c:v>3.225527838909443</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.452791080221019</c:v>
+                  <c:v>3.452791080221033</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3.855547376146404</c:v>
@@ -4425,25 +4425,25 @@
                   <c:v>7.511557484012059</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.462765609630964</c:v>
+                  <c:v>7.462765609630949</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.008885673826299</c:v>
+                  <c:v>7.008885673826285</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6.850967855052659</c:v>
+                  <c:v>6.850967855052673</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>6.980701288471749</c:v>
+                  <c:v>6.980701288471764</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>7.024132772021616</c:v>
+                  <c:v>7.02413277202163</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>6.823398239795864</c:v>
+                  <c:v>6.823398239795878</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.640775120630678</c:v>
+                  <c:v>6.640775120630693</c:v>
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>6.205961144959758</c:v>
@@ -4674,13 +4674,13 @@
                   <c:v>1.905728361765625</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>1.735872756929496</c:v>
+                  <c:v>1.735872756929481</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1.571971839383309</c:v>
+                  <c:v>1.571971839383295</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1.451909419687851</c:v>
+                  <c:v>1.451909419687837</c:v>
                 </c:pt>
                 <c:pt idx="186">
                   <c:v>1.381656419717473</c:v>
@@ -4704,82 +4704,82 @@
                   <c:v>0.7695684065031116</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.7393018267469387</c:v>
+                  <c:v>0.7393018267469529</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.8866811256509237</c:v>
+                  <c:v>0.8866811256509664</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.8440027162425565</c:v>
+                  <c:v>0.8440027162426134</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.6278350632705525</c:v>
+                  <c:v>0.6278350632705809</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.2437757961932476</c:v>
+                  <c:v>0.2437757961932761</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-0.1924417380936916</c:v>
+                  <c:v>-0.1924417380936774</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-0.8131055911203902</c:v>
+                  <c:v>-0.8131055911203759</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-1.24219895129454</c:v>
+                  <c:v>-1.242198951294526</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-1.637918651716163</c:v>
+                  <c:v>-1.637918651716156</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-2.070304296229367</c:v>
+                  <c:v>-2.070304296229352</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-2.423053503644681</c:v>
+                  <c:v>-2.423053503644667</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-2.915427371965407</c:v>
+                  <c:v>-2.915427371965386</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-2.965396631211625</c:v>
+                  <c:v>-2.965396631211618</c:v>
                 </c:pt>
                 <c:pt idx="206">
                   <c:v>-3.075642229286458</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-3.069292120221434</c:v>
+                  <c:v>-3.069292120221441</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-3.35712433562977</c:v>
+                  <c:v>-3.357124335629777</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-3.68890847477816</c:v>
+                  <c:v>-3.688908474778174</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-3.878765401839885</c:v>
+                  <c:v>-3.8787654018399</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-4.337037110171892</c:v>
+                  <c:v>-4.337037110171906</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-4.530001550840424</c:v>
+                  <c:v>-4.530001550840439</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-4.74502159619059</c:v>
+                  <c:v>-4.745021596190604</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-4.377464845402045</c:v>
+                  <c:v>-4.377464845402059</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-3.968620398462434</c:v>
+                  <c:v>-3.968620398462448</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-3.784624360390964</c:v>
+                  <c:v>-3.784624360390978</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-3.542838517464972</c:v>
+                  <c:v>-3.542838517464986</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-3.340263299512657</c:v>
+                  <c:v>-3.340263299512671</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>-2.762027304242451</c:v>
@@ -5686,43 +5686,43 @@
                   <c:v>1.812526743710835</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.717893223565505</c:v>
+                  <c:v>1.717893223565506</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.733879000589709</c:v>
+                  <c:v>1.73387900058971</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.875262424832602</c:v>
+                  <c:v>1.875262424832603</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.087992416203512</c:v>
+                  <c:v>2.087992416203514</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.296670771031584</c:v>
+                  <c:v>2.296670771031586</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.471460812121419</c:v>
+                  <c:v>2.471460812121421</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.630970988386945</c:v>
+                  <c:v>2.630970988386949</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.812148986711924</c:v>
+                  <c:v>2.812148986711929</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.969111210329615</c:v>
+                  <c:v>2.969111210329621</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.089118152822518</c:v>
+                  <c:v>3.089118152822526</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.229070080549944</c:v>
+                  <c:v>3.22907008054995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.37160764859278</c:v>
+                  <c:v>3.371607648592784</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.408127601013617</c:v>
+                  <c:v>3.40812760101362</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3.396961731211766</c:v>
@@ -5890,16 +5890,16 @@
                   <c:v>0.5647402134198147</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.3171823934018843</c:v>
+                  <c:v>0.3171823934018844</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.06870772935141606</c:v>
+                  <c:v>0.06870772935141611</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>-0.1615858207089187</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.2593613666095852</c:v>
+                  <c:v>-0.2593613666095851</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>-0.3272477522918504</c:v>
@@ -5908,94 +5908,94 @@
                   <c:v>-0.3936217941562741</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.4504216430728109</c:v>
+                  <c:v>-0.4504216430728108</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.5374997978554978</c:v>
+                  <c:v>-0.5374997978554977</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.5822225300267128</c:v>
+                  <c:v>-0.5822225300267126</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.6461651032420485</c:v>
+                  <c:v>-0.6461651032420483</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.6415775695635012</c:v>
+                  <c:v>-0.6415775695635011</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.5553322721691608</c:v>
+                  <c:v>-0.5553322721691607</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.3921338459723805</c:v>
+                  <c:v>-0.3921338459723803</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.09968338273059885</c:v>
+                  <c:v>-0.09968338273059857</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.3048792141583143</c:v>
+                  <c:v>0.3048792141583146</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.7507675911436005</c:v>
+                  <c:v>0.7507675911436009</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.19840559198627</c:v>
+                  <c:v>1.198405591986271</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.733507978425994</c:v>
+                  <c:v>1.733507978425995</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.323723375355102</c:v>
+                  <c:v>2.323723375355103</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.876336391197929</c:v>
+                  <c:v>2.87633639119793</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.420278786347533</c:v>
+                  <c:v>3.420278786347534</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>3.960917303219341</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.55030507210538</c:v>
+                  <c:v>4.550305072105381</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.177997324409908</c:v>
+                  <c:v>5.17799732440991</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.745324007147028</c:v>
+                  <c:v>5.74532400714703</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.225647329788714</c:v>
+                  <c:v>6.225647329788716</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.645371297319553</c:v>
+                  <c:v>6.645371297319554</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.841400824929287</c:v>
+                  <c:v>6.841400824929288</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.895505805800511</c:v>
+                  <c:v>6.895505805800513</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.741492886247624</c:v>
+                  <c:v>6.741492886247625</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6.561174705401788</c:v>
+                  <c:v>6.561174705401793</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6.449246963295661</c:v>
+                  <c:v>6.44924696329567</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>6.348816740356411</c:v>
+                  <c:v>6.34881674035642</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>6.190845603327576</c:v>
+                  <c:v>6.190845603327583</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5.982523811154065</c:v>
+                  <c:v>5.982523811154071</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.772305203993615</c:v>
+                  <c:v>5.772305203993618</c:v>
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>5.555187724834349</c:v>
@@ -6199,7 +6199,7 @@
                   <c:v>2.413092325930597</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2.367486292998386</c:v>
+                  <c:v>2.367486292998385</c:v>
                 </c:pt>
                 <c:pt idx="175">
                   <c:v>2.304771966152171</c:v>
@@ -6208,130 +6208,130 @@
                   <c:v>2.240198038781205</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2.140302557102779</c:v>
+                  <c:v>2.140302557102778</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2.012199766933402</c:v>
+                  <c:v>2.012199766933401</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1.845563093602548</c:v>
+                  <c:v>1.845563093602546</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1.66262868578604</c:v>
+                  <c:v>1.662628685786038</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1.498612206943356</c:v>
+                  <c:v>1.498612206943353</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1.35348751732406</c:v>
+                  <c:v>1.353487517324056</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>1.215427306213668</c:v>
+                  <c:v>1.215427306213664</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1.085315943534711</c:v>
+                  <c:v>1.08531594353471</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.9636519695725618</c:v>
+                  <c:v>0.9636519695725632</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.8415876070437394</c:v>
+                  <c:v>0.8415876070437447</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.706570403875306</c:v>
+                  <c:v>0.7065704038753127</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.5953400714315531</c:v>
+                  <c:v>0.5953400714315614</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.4953057374624729</c:v>
+                  <c:v>0.4953057374624833</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.3654380656151545</c:v>
+                  <c:v>0.3654380656151676</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.2298446744801018</c:v>
+                  <c:v>0.2298446744801182</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.09651275870587994</c:v>
+                  <c:v>0.09651275870590034</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-0.07175115324342798</c:v>
+                  <c:v>-0.07175115324340248</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-0.2745143982410196</c:v>
+                  <c:v>-0.2745143982409913</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-0.5648132792140055</c:v>
+                  <c:v>-0.5648132792139807</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-0.9170172780781459</c:v>
+                  <c:v>-0.9170172780781292</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-1.30323036341532</c:v>
+                  <c:v>-1.303230363415307</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-1.689981903317462</c:v>
+                  <c:v>-1.689981903317452</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-2.064366944623405</c:v>
+                  <c:v>-2.064366944623396</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-2.377182282999158</c:v>
+                  <c:v>-2.377182282999151</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-2.660928115925312</c:v>
+                  <c:v>-2.660928115925307</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-2.916680481977599</c:v>
+                  <c:v>-2.916680481977594</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-3.128274528414657</c:v>
+                  <c:v>-3.128274528414654</c:v>
                 </c:pt>
                 <c:pt idx="204">
                   <c:v>-3.304579784607151</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-3.401867887767586</c:v>
+                  <c:v>-3.401867887767592</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-3.510985701906576</c:v>
+                  <c:v>-3.510985701906585</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-3.619821570061605</c:v>
+                  <c:v>-3.619821570061616</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-3.757453932521648</c:v>
+                  <c:v>-3.75745393252166</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-3.857536331744617</c:v>
+                  <c:v>-3.85753633174463</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-3.899693295986232</c:v>
+                  <c:v>-3.899693295986244</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-3.904925269522818</c:v>
+                  <c:v>-3.90492526952283</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-3.796897309360549</c:v>
+                  <c:v>-3.79689730936056</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-3.61362124899058</c:v>
+                  <c:v>-3.61362124899059</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-3.330771162190577</c:v>
+                  <c:v>-3.330771162190586</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-3.06909774138771</c:v>
+                  <c:v>-3.069097741387718</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-2.844217077119028</c:v>
+                  <c:v>-2.844217077119035</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-2.609115256301044</c:v>
+                  <c:v>-2.609115256301049</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-2.375684441010062</c:v>
+                  <c:v>-2.375684441010065</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>-2.134539726384413</c:v>
@@ -7323,10 +7323,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="253"/>
                 <c:pt idx="0">
-                  <c:v>83.91237754742809</c:v>
+                  <c:v>83.91237754742797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.40193417434178</c:v>
+                  <c:v>88.40193417434163</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>94.2093654131931</c:v>
@@ -7338,58 +7338,58 @@
                   <c:v>58.79289590601802</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.68416976121513</c:v>
+                  <c:v>11.68416976121499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.124111562969089</c:v>
+                  <c:v>6.124111562969075</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.38684782815415</c:v>
+                  <c:v>20.38684782815387</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.34168778136588</c:v>
+                  <c:v>36.34168778136579</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.50045753439409</c:v>
+                  <c:v>19.50045753439404</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.04954655790007</c:v>
+                  <c:v>36.04954655790001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>56.06263521841868</c:v>
+                  <c:v>56.06263521841857</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48.69623825195263</c:v>
+                  <c:v>48.69623825195254</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.53456206898624</c:v>
+                  <c:v>20.5345620689862</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.28292028237826</c:v>
+                  <c:v>49.28292028237817</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45.62322695569958</c:v>
+                  <c:v>45.62322695569934</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66.55704855101348</c:v>
+                  <c:v>66.55704855101338</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72.80045897017874</c:v>
+                  <c:v>72.80045897017862</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>78.96995765716842</c:v>
+                  <c:v>78.96995765716829</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>96.2187654050374</c:v>
+                  <c:v>96.21876540503725</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82.88918192297578</c:v>
+                  <c:v>82.88918192297594</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>75.80647604397257</c:v>
+                  <c:v>75.80647604397251</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>82.25807401710041</c:v>
+                  <c:v>82.25807401710057</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>85.68392364793206</c:v>
@@ -7404,7 +7404,7 @@
                   <c:v>95.39096891735093</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>99.84285158119356</c:v>
+                  <c:v>99.84285158119354</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>68.78744245602979</c:v>
@@ -7431,7 +7431,7 @@
                   <c:v>92.4933264092959</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>96.41545201495781</c:v>
+                  <c:v>96.41545201495768</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>93.10662081497205</c:v>
@@ -7446,7 +7446,7 @@
                   <c:v>36.59576880941093</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>27.44682394748419</c:v>
+                  <c:v>27.44682394748434</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>15.56016597510373</c:v>
@@ -7485,7 +7485,7 @@
                   <c:v>92.43901810430461</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>89.38931899073582</c:v>
+                  <c:v>89.38931899073572</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>53.61908216041836</c:v>
@@ -7533,7 +7533,7 @@
                   <c:v>64.46468708651281</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>76.29798666489921</c:v>
+                  <c:v>76.29798666489918</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>78.96026870820346</c:v>
@@ -7548,7 +7548,7 @@
                   <c:v>81.19015433854561</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>81.94255500494775</c:v>
+                  <c:v>81.94255500494765</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>68.80987644120185</c:v>
@@ -7557,13 +7557,13 @@
                   <c:v>91.65526163024728</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>63.06418612480963</c:v>
+                  <c:v>63.06418612480969</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>87.03114760809976</c:v>
+                  <c:v>87.03114760809984</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80.80099661767402</c:v>
+                  <c:v>80.80099661767409</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>63.16090078610336</c:v>
@@ -7578,13 +7578,13 @@
                   <c:v>24.85438470166915</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>15.61773625623436</c:v>
+                  <c:v>15.61773625623434</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>24.97133170707175</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>20.01148050524547</c:v>
+                  <c:v>20.01148050524543</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>2.351834430856067</c:v>
@@ -7620,34 +7620,34 @@
                   <c:v>28.80190164719101</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>73.61137947554676</c:v>
+                  <c:v>73.61137947554674</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>97.1500351298471</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>90.53251010904519</c:v>
+                  <c:v>90.53251010904535</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>79.7865593332813</c:v>
+                  <c:v>79.78655933328139</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>80.81564808060529</c:v>
+                  <c:v>80.81564808060538</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>88.50207439906248</c:v>
+                  <c:v>88.50207439906259</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>79.87546287624043</c:v>
+                  <c:v>79.87546287624055</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>85.27967183414903</c:v>
+                  <c:v>85.27967183414923</c:v>
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>96.98120807380916</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>98.88095238095232</c:v>
+                  <c:v>98.88095238095245</c:v>
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>91.09410306998606</c:v>
@@ -7656,7 +7656,7 @@
                   <c:v>97.6478405017921</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>93.38545698324019</c:v>
+                  <c:v>93.38545698324025</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>95.0208302213577</c:v>
@@ -7692,49 +7692,49 @@
                   <c:v>99.10249586508489</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>65.17115394488718</c:v>
+                  <c:v>65.17115394488727</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>54.53285174243673</c:v>
+                  <c:v>54.5328517424368</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>37.99725347028055</c:v>
+                  <c:v>37.9972534702806</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>52.40516540001589</c:v>
+                  <c:v>52.40516540001596</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>32.09990189643756</c:v>
+                  <c:v>32.0999018964376</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>10.50974197608553</c:v>
+                  <c:v>10.50974197608555</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>70.34269106527155</c:v>
+                  <c:v>70.34269106527167</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>67.32998724820054</c:v>
+                  <c:v>67.32998724820065</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>83.95275058709166</c:v>
+                  <c:v>83.95275058709193</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>70.10710834658288</c:v>
+                  <c:v>70.10710834658296</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>71.71403020782355</c:v>
+                  <c:v>71.71403020782364</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>81.62337344484982</c:v>
+                  <c:v>81.62337344484992</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>76.12279750757349</c:v>
+                  <c:v>76.12279750757358</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>63.10259363780906</c:v>
+                  <c:v>63.10259363780914</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>95.33998773036187</c:v>
+                  <c:v>95.33998773036203</c:v>
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>94.36694859092214</c:v>
@@ -7764,7 +7764,7 @@
                   <c:v>53.55461516518351</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>83.26673619766854</c:v>
+                  <c:v>83.26673619766855</c:v>
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>74.9338555334862</c:v>
@@ -7776,7 +7776,7 @@
                   <c:v>98.47467393478266</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>81.8230261150119</c:v>
+                  <c:v>81.82302611501187</c:v>
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>90.39020686043463</c:v>
@@ -7806,10 +7806,10 @@
                   <c:v>99.31998057309372</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>98.83341067042862</c:v>
+                  <c:v>98.83341067042863</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>85.07117732114104</c:v>
+                  <c:v>85.07117732114081</c:v>
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>95.84449723393827</c:v>
@@ -7836,7 +7836,7 @@
                   <c:v>92.43284833944911</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>88.3135462392719</c:v>
+                  <c:v>88.31354623927191</c:v>
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>98.64068541852073</c:v>
@@ -7863,7 +7863,7 @@
                   <c:v>95.45154717585588</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>99.51023169715697</c:v>
+                  <c:v>99.51023169715698</c:v>
                 </c:pt>
                 <c:pt idx="181">
                   <c:v>96.40156195190637</c:v>
@@ -7872,16 +7872,16 @@
                   <c:v>93.09709600634756</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>90.3289198023234</c:v>
+                  <c:v>90.32891980232338</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>82.60353110431197</c:v>
+                  <c:v>82.60353110431195</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>70.42004875304181</c:v>
+                  <c:v>70.4200487530416</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>97.49136838725272</c:v>
+                  <c:v>97.49136838725271</c:v>
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>92.23067681217461</c:v>
@@ -7905,7 +7905,7 @@
                   <c:v>61.28529522332308</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>77.9551972026956</c:v>
+                  <c:v>77.95519720269571</c:v>
                 </c:pt>
                 <c:pt idx="195">
                   <c:v>89.38654108875697</c:v>
@@ -7914,7 +7914,7 @@
                   <c:v>96.96203357942998</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>92.56084244426987</c:v>
+                  <c:v>92.56084244426997</c:v>
                 </c:pt>
                 <c:pt idx="198">
                   <c:v>97.66307339231571</c:v>
@@ -7926,28 +7926,28 @@
                   <c:v>93.72140929671829</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>90.47215627575099</c:v>
+                  <c:v>90.4721562757509</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>79.23503552512386</c:v>
+                  <c:v>79.23503552512396</c:v>
                 </c:pt>
                 <c:pt idx="203">
                   <c:v>98.73270454897576</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>57.7385898538236</c:v>
+                  <c:v>57.73858985382354</c:v>
                 </c:pt>
                 <c:pt idx="205">
                   <c:v>64.79550357586267</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>42.0442712148083</c:v>
+                  <c:v>42.04427121480825</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>61.92242544838646</c:v>
+                  <c:v>61.92242544838652</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>61.50706311033372</c:v>
+                  <c:v>61.50706311033376</c:v>
                 </c:pt>
                 <c:pt idx="209">
                   <c:v>47.58228646445691</c:v>
@@ -7956,7 +7956,7 @@
                   <c:v>62.07503930244943</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>42.07901883861204</c:v>
+                  <c:v>42.07901883861206</c:v>
                 </c:pt>
                 <c:pt idx="212">
                   <c:v>39.41799945958126</c:v>
@@ -7977,16 +7977,16 @@
                   <c:v>22.04269243381802</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>3.453137500000025</c:v>
+                  <c:v>3.453137499999981</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>53.51785714285719</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.4093913007321183</c:v>
+                  <c:v>0.4093913007321179</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>29.74405624368127</c:v>
+                  <c:v>29.74405624368136</c:v>
                 </c:pt>
                 <c:pt idx="222">
                   <c:v>42.42823915806905</c:v>
@@ -8004,7 +8004,7 @@
                   <c:v>66.3851014239025</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>46.50671861641675</c:v>
+                  <c:v>46.50671861641667</c:v>
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>59.90119633585341</c:v>
@@ -8022,7 +8022,7 @@
                   <c:v>4.745641737224863</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>23.55878606752909</c:v>
+                  <c:v>23.55878606752924</c:v>
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>43.31995199999983</c:v>
@@ -8836,169 +8836,169 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="253"/>
                 <c:pt idx="0">
-                  <c:v>88.84122571165437</c:v>
+                  <c:v>88.84122571165425</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.18093535457321</c:v>
+                  <c:v>87.18093535457312</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.31125593179863</c:v>
+                  <c:v>77.31125593179858</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.8028573811393</c:v>
+                  <c:v>49.80285738113921</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.5337257434008</c:v>
+                  <c:v>25.53372574340071</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.73170971744617</c:v>
+                  <c:v>12.73170971744599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.95088239082976</c:v>
+                  <c:v>20.95088239082959</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.40966438130475</c:v>
+                  <c:v>25.40966438130458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.63056395788673</c:v>
+                  <c:v>30.63056395788663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.20421310357099</c:v>
+                  <c:v>37.20421310357089</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.93614000942384</c:v>
+                  <c:v>46.93614000942372</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41.76447851311923</c:v>
+                  <c:v>41.76447851311912</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39.50457353443909</c:v>
+                  <c:v>39.50457353443898</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.48023643568808</c:v>
+                  <c:v>38.48023643568791</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>53.82106526303048</c:v>
+                  <c:v>53.82106526303031</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61.66024482563065</c:v>
+                  <c:v>61.66024482563046</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72.77582172612027</c:v>
+                  <c:v>72.77582172612011</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>82.66306067746157</c:v>
+                  <c:v>82.6630606774614</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>86.02596832839392</c:v>
+                  <c:v>86.02596832839383</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>84.97147445732863</c:v>
+                  <c:v>84.97147445732857</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>80.31791066134961</c:v>
+                  <c:v>80.31791066134969</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>81.24949123633506</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>79.14333394825361</c:v>
+                  <c:v>79.14333394825364</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>82.76024656549139</c:v>
+                  <c:v>82.76024656549136</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>85.99592832196434</c:v>
+                  <c:v>85.99592832196431</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>96.11421078911944</c:v>
+                  <c:v>96.11421078911941</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>88.00708765152478</c:v>
+                  <c:v>88.00708765152477</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>80.71111414257128</c:v>
+                  <c:v>80.71111414257126</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>74.00202290404026</c:v>
+                  <c:v>74.00202290404025</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>74.00202290404026</c:v>
+                  <c:v>74.00202290404025</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>81.22011987311342</c:v>
+                  <c:v>81.22011987311339</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>85.70001426791204</c:v>
+                  <c:v>85.70001426791202</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>91.5465635659685</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>90.6585592698305</c:v>
+                  <c:v>90.65855926983049</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>91.74528959148431</c:v>
+                  <c:v>91.74528959148427</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>94.00513307974194</c:v>
+                  <c:v>94.00513307974188</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>88.80896658578405</c:v>
+                  <c:v>88.80896658578399</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70.85487672596248</c:v>
+                  <c:v>70.85487672596246</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>52.01792605744211</c:v>
+                  <c:v>52.01792605744209</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>35.53192506412945</c:v>
+                  <c:v>35.53192506412947</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>26.53425291066632</c:v>
+                  <c:v>26.53425291066634</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>35.97969610442457</c:v>
+                  <c:v>35.97969610442458</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>52.55218297147697</c:v>
+                  <c:v>52.55218297147695</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>71.70084034838005</c:v>
+                  <c:v>71.70084034838004</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>77.48239411257369</c:v>
+                  <c:v>77.48239411257366</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>81.25427374518621</c:v>
+                  <c:v>81.2542737451862</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>84.04910030208144</c:v>
+                  <c:v>84.04910030208141</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>83.64010229131141</c:v>
+                  <c:v>83.64010229131139</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>81.79959988179051</c:v>
+                  <c:v>81.79959988179048</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>74.32402285717195</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>67.75733484535354</c:v>
+                  <c:v>67.75733484535353</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>70.91753547414963</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>81.05934623684722</c:v>
+                  <c:v>81.05934623684719</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>78.48247308515293</c:v>
+                  <c:v>78.48247308515289</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54.97797335686035</c:v>
+                  <c:v>54.97797335686031</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>28.25812417131638</c:v>
@@ -9007,19 +9007,19 @@
                   <c:v>12.53563466233005</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>15.07084588486881</c:v>
+                  <c:v>15.07084588486882</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>12.22751641220429</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>19.98904995798084</c:v>
+                  <c:v>19.98904995798085</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>15.92738852562682</c:v>
+                  <c:v>15.92738852562683</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>22.77175616644865</c:v>
+                  <c:v>22.77175616644866</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>21.73842717400977</c:v>
@@ -9028,7 +9028,7 @@
                   <c:v>27.72555028805745</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>34.0369416452601</c:v>
+                  <c:v>34.03694164526011</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>34.67478380280189</c:v>
@@ -9046,7 +9046,7 @@
                   <c:v>73.24098081987182</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>83.79768406721526</c:v>
+                  <c:v>83.79768406721523</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>89.73294652839733</c:v>
@@ -9055,451 +9055,451 @@
                   <c:v>90.47624173851138</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>85.7454944639796</c:v>
+                  <c:v>85.74549446397957</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>77.31419526156506</c:v>
+                  <c:v>77.31419526156503</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>80.80256435879896</c:v>
+                  <c:v>80.80256435879893</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>74.50977473208624</c:v>
+                  <c:v>74.50977473208627</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>80.58353178771887</c:v>
+                  <c:v>80.58353178771894</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>76.96544345019443</c:v>
+                  <c:v>76.96544345019454</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>76.99768167062568</c:v>
+                  <c:v>76.99768167062577</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>70.70760495218178</c:v>
+                  <c:v>70.70760495218184</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>61.36014620381459</c:v>
+                  <c:v>61.36014620381462</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>48.59130750900318</c:v>
+                  <c:v>48.59130750900321</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>31.07691377682528</c:v>
+                  <c:v>31.0769137768253</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>21.81448422165839</c:v>
+                  <c:v>21.81448422165841</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>20.2001828228505</c:v>
+                  <c:v>20.20018282285051</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>15.7782155477244</c:v>
+                  <c:v>15.77821554772441</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.310715691677329</c:v>
+                  <c:v>9.310715691677343</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.177745783570529</c:v>
+                  <c:v>5.177745783570557</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>10.99375545505137</c:v>
+                  <c:v>10.99375545505139</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>15.52299364160021</c:v>
+                  <c:v>15.52299364160024</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>15.36812466544548</c:v>
+                  <c:v>15.36812466544551</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>11.96738180903803</c:v>
+                  <c:v>11.96738180903805</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>13.49376695906451</c:v>
+                  <c:v>13.49376695906454</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>13.48591388425275</c:v>
+                  <c:v>13.48591388425277</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>22.67749974280169</c:v>
+                  <c:v>22.67749974280171</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>24.36623290897985</c:v>
+                  <c:v>24.36623290897987</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>46.52855785815357</c:v>
+                  <c:v>46.52855785815359</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>66.52110541752826</c:v>
+                  <c:v>66.52110541752829</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>87.09797490481299</c:v>
+                  <c:v>87.09797490481306</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>89.15636819072449</c:v>
+                  <c:v>89.15636819072461</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>83.71157250764388</c:v>
+                  <c:v>83.71157250764405</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>83.03476060431632</c:v>
+                  <c:v>83.03476060431645</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>83.06439511863603</c:v>
+                  <c:v>83.06439511863617</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>84.55240303648395</c:v>
+                  <c:v>84.55240303648412</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>87.37878092806618</c:v>
+                  <c:v>87.37878092806631</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>93.71394409630348</c:v>
+                  <c:v>93.71394409630359</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>95.65208784158249</c:v>
+                  <c:v>95.65208784158256</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>95.87429865091013</c:v>
+                  <c:v>95.87429865091019</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>94.04246685167276</c:v>
+                  <c:v>94.04246685167281</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>95.35137590212997</c:v>
+                  <c:v>95.35137590213002</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>94.62559390913701</c:v>
+                  <c:v>94.62559390913707</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>94.9802441017635</c:v>
+                  <c:v>94.98024410176356</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>89.99441107935017</c:v>
+                  <c:v>89.9944110793502</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>89.28136845296517</c:v>
+                  <c:v>89.2813684529652</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>86.77815427809814</c:v>
+                  <c:v>86.77815427809817</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>92.75090691926091</c:v>
+                  <c:v>92.75090691926097</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>92.63967778017779</c:v>
+                  <c:v>92.63967778017785</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>94.06989874147756</c:v>
+                  <c:v>94.06989874147762</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>90.74137305027597</c:v>
+                  <c:v>90.74137305027602</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>92.77631192983466</c:v>
+                  <c:v>92.77631192983472</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>84.08988727132441</c:v>
+                  <c:v>84.0898872713245</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>72.93550051746955</c:v>
+                  <c:v>72.93550051746966</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>52.56708638586809</c:v>
+                  <c:v>52.56708638586823</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>48.31175687091099</c:v>
+                  <c:v>48.31175687091113</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>40.83410692224461</c:v>
+                  <c:v>40.83410692224472</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>31.67160309084627</c:v>
+                  <c:v>31.67160309084637</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>37.65077831259816</c:v>
+                  <c:v>37.65077831259827</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>49.39414009651915</c:v>
+                  <c:v>49.39414009651929</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>73.87514296685453</c:v>
+                  <c:v>73.87514296685475</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>73.79661539395831</c:v>
+                  <c:v>73.79661539395852</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>75.25796304716599</c:v>
+                  <c:v>75.25796304716617</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>74.48150399975205</c:v>
+                  <c:v>74.48150399975218</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>76.48673372008226</c:v>
+                  <c:v>76.48673372008237</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>73.61625486341076</c:v>
+                  <c:v>73.61625486341087</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>78.18845962524811</c:v>
+                  <c:v>78.18845962524824</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>84.26984331969767</c:v>
+                  <c:v>84.26984331969777</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>96.44976376102552</c:v>
+                  <c:v>96.44976376102561</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>92.09732358110436</c:v>
+                  <c:v>92.09732358110439</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>91.90375604264075</c:v>
+                  <c:v>91.90375604264079</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>85.09665893195093</c:v>
+                  <c:v>85.09665893195096</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>84.07612441165919</c:v>
+                  <c:v>84.07612441165922</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>79.79895619472445</c:v>
+                  <c:v>79.79895619472448</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>77.84754659395107</c:v>
+                  <c:v>77.84754659395111</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>69.29206377243786</c:v>
+                  <c:v>69.29206377243788</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>70.062728730085</c:v>
+                  <c:v>70.06272873008503</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>70.58506896544604</c:v>
+                  <c:v>70.5850689654461</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>82.287791851915</c:v>
+                  <c:v>82.28779185191505</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>87.35710443095304</c:v>
+                  <c:v>87.35710443095307</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>89.65349462479496</c:v>
+                  <c:v>89.65349462479497</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>90.22930230340971</c:v>
+                  <c:v>90.22930230340972</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>87.47548147478226</c:v>
+                  <c:v>87.47548147478227</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>91.24355035482108</c:v>
+                  <c:v>91.24355035482112</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>85.02583084069336</c:v>
+                  <c:v>85.02583084069337</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>75.51617825179271</c:v>
+                  <c:v>75.51617825179272</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>62.71593014381252</c:v>
+                  <c:v>62.71593014381253</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>70.59341406143579</c:v>
+                  <c:v>70.59341406143581</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>81.70482048288497</c:v>
+                  <c:v>81.70482048288498</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>96.56931786352028</c:v>
+                  <c:v>96.56931786352031</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>97.72395473002274</c:v>
+                  <c:v>97.72395473002275</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>94.40818952155445</c:v>
+                  <c:v>94.40818952155439</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>93.2496950751693</c:v>
+                  <c:v>93.24969507516924</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>92.39012428295956</c:v>
+                  <c:v>92.3901242829595</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>94.05112038467941</c:v>
+                  <c:v>94.05112038467944</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>86.69722846441952</c:v>
+                  <c:v>86.69722846441955</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>79.63661534193376</c:v>
+                  <c:v>79.63661534193379</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>74.44862255513947</c:v>
+                  <c:v>74.44862255513948</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>73.32040945329601</c:v>
+                  <c:v>73.32040945329604</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>79.10707259099831</c:v>
+                  <c:v>79.10707259099836</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>83.71485891544972</c:v>
+                  <c:v>83.71485891544977</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>93.12902666574722</c:v>
+                  <c:v>93.12902666574725</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>89.19949095623194</c:v>
+                  <c:v>89.19949095623197</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>88.69086605945471</c:v>
+                  <c:v>88.69086605945472</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>79.51915023226645</c:v>
+                  <c:v>79.51915023226648</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>77.81649607021821</c:v>
+                  <c:v>77.81649607021824</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>72.81948829625983</c:v>
+                  <c:v>72.81948829625986</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>76.28634488897717</c:v>
+                  <c:v>76.28634488897718</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>82.92476770600963</c:v>
+                  <c:v>82.92476770600965</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>92.16262886270692</c:v>
+                  <c:v>92.16262886270694</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>97.12111360830637</c:v>
+                  <c:v>97.12111360830642</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>96.33629655180361</c:v>
+                  <c:v>96.33629655180364</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>93.27585925352575</c:v>
+                  <c:v>93.27585925352577</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>88.67651563766094</c:v>
+                  <c:v>88.67651563766096</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>81.11749988655903</c:v>
+                  <c:v>81.11749988655897</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>83.50498274820214</c:v>
+                  <c:v>83.50498274820208</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>86.71403131748968</c:v>
+                  <c:v>86.71403131748964</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>84.6445599781414</c:v>
+                  <c:v>84.64455997814143</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>79.69161040176373</c:v>
+                  <c:v>79.69161040176374</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>77.75347077373704</c:v>
+                  <c:v>77.75347077373705</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>80.74082629497178</c:v>
+                  <c:v>80.7408262949718</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>78.64294317160011</c:v>
+                  <c:v>78.64294317160012</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>70.26595560334296</c:v>
+                  <c:v>70.26595560334299</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>71.85978757134109</c:v>
+                  <c:v>71.85978757134114</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>76.20901117159188</c:v>
+                  <c:v>76.20901117159191</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>88.10125729029419</c:v>
+                  <c:v>88.10125729029421</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>92.96980570415225</c:v>
+                  <c:v>92.96980570415231</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>95.72864980533849</c:v>
+                  <c:v>95.72864980533855</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>96.36058454398278</c:v>
+                  <c:v>96.36058454398284</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>96.74744016146559</c:v>
+                  <c:v>96.74744016146563</c:v>
                 </c:pt>
                 <c:pt idx="199">
                   <c:v>94.35046778927735</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>87.80953369919769</c:v>
+                  <c:v>87.80953369919773</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>89.4799654499502</c:v>
+                  <c:v>89.47996544995021</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>78.56877664264107</c:v>
+                  <c:v>78.56877664264108</c:v>
                 </c:pt>
                 <c:pt idx="203">
                   <c:v>73.75559932622066</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>54.85945488149818</c:v>
+                  <c:v>54.85945488149815</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>56.25406674635246</c:v>
+                  <c:v>56.25406674635249</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>55.15791992450949</c:v>
+                  <c:v>55.15791992450951</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>57.00392500772569</c:v>
+                  <c:v>57.00392500772573</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>57.05479629241335</c:v>
+                  <c:v>57.05479629241336</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>50.57878153517279</c:v>
+                  <c:v>50.5787815351728</c:v>
                 </c:pt>
                 <c:pt idx="210">
                   <c:v>47.85735253354758</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>31.48332780745562</c:v>
+                  <c:v>31.48332780745563</c:v>
                 </c:pt>
                 <c:pt idx="212">
                   <c:v>18.00084959809372</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>8.679301304282854</c:v>
+                  <c:v>8.679301304282852</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>9.12141671186871</c:v>
+                  <c:v>9.121416711868706</c:v>
                 </c:pt>
                 <c:pt idx="215">
                   <c:v>15.92511945296594</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>13.2583804269164</c:v>
+                  <c:v>13.25838042691638</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>26.33789569222508</c:v>
+                  <c:v>26.33789569222506</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>19.12679531452978</c:v>
+                  <c:v>19.12679531452976</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>27.89043489575687</c:v>
+                  <c:v>27.89043489575689</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>24.19389556749415</c:v>
+                  <c:v>24.19389556749418</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>28.84166172350258</c:v>
+                  <c:v>28.84166172350261</c:v>
                 </c:pt>
                 <c:pt idx="222">
                   <c:v>34.87113072863484</c:v>
@@ -9508,46 +9508,46 @@
                   <c:v>38.23066255881947</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>55.57479977720117</c:v>
+                  <c:v>55.57479977720118</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>55.13288489631407</c:v>
+                  <c:v>55.13288489631405</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>57.59767212539088</c:v>
+                  <c:v>57.59767212539086</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>43.46271220158764</c:v>
+                  <c:v>43.46271220158761</c:v>
                 </c:pt>
                 <c:pt idx="228">
                   <c:v>28.3044927619559</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>13.62662066030996</c:v>
+                  <c:v>13.62662066030995</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>7.215094021887327</c:v>
+                  <c:v>7.215094021887325</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>14.72400261188984</c:v>
+                  <c:v>14.72400261188989</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>23.87479326825127</c:v>
+                  <c:v>23.87479326825131</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>46.39956335584292</c:v>
+                  <c:v>46.39956335584296</c:v>
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>67.07996266666653</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>74.46335590998753</c:v>
+                  <c:v>74.46335590998751</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>79.91842315876858</c:v>
+                  <c:v>79.91842315876856</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>80.84274755851294</c:v>
+                  <c:v>80.84274755851293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10045,7 +10045,7 @@
         <v>142.080002</v>
       </c>
       <c r="C2">
-        <v>133.6540007999999</v>
+        <v>133.6540008</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -10056,7 +10056,7 @@
         <v>142.919998</v>
       </c>
       <c r="C3">
-        <v>132.3440001999999</v>
+        <v>132.3440002</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -10067,7 +10067,7 @@
         <v>139.070007</v>
       </c>
       <c r="C4">
-        <v>131.2570006999999</v>
+        <v>131.2570007</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -10078,7 +10078,7 @@
         <v>136.869995</v>
       </c>
       <c r="C5">
-        <v>130.4419997999999</v>
+        <v>130.4419998</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -10089,7 +10089,7 @@
         <v>132.029999</v>
       </c>
       <c r="C6">
-        <v>129.4150000999999</v>
+        <v>129.4150001</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -10100,7 +10100,7 @@
         <v>127.830002</v>
       </c>
       <c r="C7">
-        <v>129.3129996999999</v>
+        <v>129.3129997</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -10111,7 +10111,7 @@
         <v>127.139999</v>
       </c>
       <c r="C8">
-        <v>129.4709998999999</v>
+        <v>129.4709999</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -10122,7 +10122,7 @@
         <v>128.910004</v>
       </c>
       <c r="C9">
-        <v>130.0260001999999</v>
+        <v>130.0260002</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -10133,7 +10133,7 @@
         <v>130.889999</v>
       </c>
       <c r="C10">
-        <v>130.5069998999999</v>
+        <v>130.5069999</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -10144,7 +10144,7 @@
         <v>128.800003</v>
       </c>
       <c r="C11">
-        <v>130.9049994999999</v>
+        <v>130.9049995</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -10155,7 +10155,7 @@
         <v>128.979996</v>
       </c>
       <c r="C12">
-        <v>131.6939993999999</v>
+        <v>131.6939994</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -10166,7 +10166,7 @@
         <v>132.050003</v>
       </c>
       <c r="C13">
-        <v>131.9929998999999</v>
+        <v>131.9929999</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -10177,7 +10177,7 @@
         <v>130.919998</v>
       </c>
       <c r="C14">
-        <v>131.8840002999999</v>
+        <v>131.8840003</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -10188,7 +10188,7 @@
         <v>126.599998</v>
       </c>
       <c r="C15">
-        <v>131.9800009999998</v>
+        <v>131.980001</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -10199,7 +10199,7 @@
         <v>131.009995</v>
       </c>
       <c r="C16">
-        <v>132.1430007999999</v>
+        <v>132.1430008</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -10210,7 +10210,7 @@
         <v>129.410004</v>
       </c>
       <c r="C17">
-        <v>131.7080016999999</v>
+        <v>131.7080017</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -10221,7 +10221,7 @@
         <v>132.690002</v>
       </c>
       <c r="C18">
-        <v>131.6370009999999</v>
+        <v>131.637001</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -10232,7 +10232,7 @@
         <v>133.720001</v>
       </c>
       <c r="C19">
-        <v>131.1490005999999</v>
+        <v>131.1490006</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -10243,7 +10243,7 @@
         <v>134.869995</v>
       </c>
       <c r="C20">
-        <v>130.5650001999999</v>
+        <v>130.5650002</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -10254,7 +10254,7 @@
         <v>136.690002</v>
       </c>
       <c r="C21">
-        <v>129.2560005999999</v>
+        <v>129.2560006</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -10265,7 +10265,7 @@
         <v>131.970001</v>
       </c>
       <c r="C22">
-        <v>127.8280007999999</v>
+        <v>127.8280008</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -10276,7 +10276,7 @@
         <v>130.960007</v>
       </c>
       <c r="C23">
-        <v>126.9550004999999</v>
+        <v>126.9550005</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -10287,7 +10287,7 @@
         <v>131.880005</v>
       </c>
       <c r="C24">
-        <v>126.0369996999999</v>
+        <v>126.0369997</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -10298,7 +10298,7 @@
         <v>128.229996</v>
       </c>
       <c r="C25">
-        <v>125.2869988999999</v>
+        <v>125.2869989</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -10309,7 +10309,7 @@
         <v>126.660004</v>
       </c>
       <c r="C26">
-        <v>124.8389992999999</v>
+        <v>124.8389993</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -10320,7 +10320,7 @@
         <v>128.699997</v>
       </c>
       <c r="C27">
-        <v>124.3979988999999</v>
+        <v>124.3979989</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -10331,7 +10331,7 @@
         <v>127.809998</v>
       </c>
       <c r="C28">
-        <v>123.8219993999999</v>
+        <v>123.8219994</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -10342,7 +10342,7 @@
         <v>127.879997</v>
       </c>
       <c r="C29">
-        <v>123.3489997999999</v>
+        <v>123.3489998</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -10353,7 +10353,7 @@
         <v>121.779999</v>
       </c>
       <c r="C30">
-        <v>122.8330001999999</v>
+        <v>122.8330002</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -10364,7 +10364,7 @@
         <v>122.410004</v>
       </c>
       <c r="C31">
-        <v>122.5600005999999</v>
+        <v>122.5600006</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -10375,7 +10375,7 @@
         <v>123.239998</v>
       </c>
       <c r="C32">
-        <v>121.9779997999999</v>
+        <v>121.9779998</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -10386,7 +10386,7 @@
         <v>121.779999</v>
       </c>
       <c r="C33">
-        <v>121.2569998999999</v>
+        <v>121.2569999</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -10397,7 +10397,7 @@
         <v>124.379997</v>
       </c>
       <c r="C34">
-        <v>120.5959997999999</v>
+        <v>120.5959998</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -10408,7 +10408,7 @@
         <v>123.75</v>
       </c>
       <c r="C35">
-        <v>119.5429998999999</v>
+        <v>119.5429999</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -10419,7 +10419,7 @@
         <v>122.25</v>
       </c>
       <c r="C36">
-        <v>118.9019994999999</v>
+        <v>118.9019995</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -10430,7 +10430,7 @@
         <v>122.940002</v>
       </c>
       <c r="C37">
-        <v>118.5409993999999</v>
+        <v>118.5409994</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -10441,7 +10441,7 @@
         <v>123.080002</v>
       </c>
       <c r="C38">
-        <v>118.0499990999999</v>
+        <v>118.0499991</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -10452,7 +10452,7 @@
         <v>122.720001</v>
       </c>
       <c r="C39">
-        <v>117.6809987999999</v>
+        <v>117.6809988</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -10463,7 +10463,7 @@
         <v>119.050003</v>
       </c>
       <c r="C40">
-        <v>117.4389989999999</v>
+        <v>117.438999</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -10474,7 +10474,7 @@
         <v>116.589996</v>
       </c>
       <c r="C41">
-        <v>117.4599988999999</v>
+        <v>117.4599989</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -10485,7 +10485,7 @@
         <v>116.029999</v>
       </c>
       <c r="C42">
-        <v>117.7219991999999</v>
+        <v>117.7219992</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -10496,7 +10496,7 @@
         <v>115.169998</v>
       </c>
       <c r="C43">
-        <v>118.0679990999999</v>
+        <v>118.0679991</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -10507,7 +10507,7 @@
         <v>113.849998</v>
       </c>
       <c r="C44">
-        <v>118.1479993999999</v>
+        <v>118.1479994</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -10518,7 +10518,7 @@
         <v>117.339996</v>
       </c>
       <c r="C45">
-        <v>118.3949995999999</v>
+        <v>118.3949996</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -10529,7 +10529,7 @@
         <v>118.639999</v>
       </c>
       <c r="C46">
-        <v>118.5300001999999</v>
+        <v>118.5300002</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -10540,7 +10540,7 @@
         <v>118.029999</v>
       </c>
       <c r="C47">
-        <v>118.5690001999999</v>
+        <v>118.5690002</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -10551,7 +10551,7 @@
         <v>119.389999</v>
       </c>
       <c r="C48">
-        <v>118.2609999999999</v>
+        <v>118.261</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -10562,7 +10562,7 @@
         <v>120.300003</v>
       </c>
       <c r="C49">
-        <v>117.3660002999999</v>
+        <v>117.3660003</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -10573,7 +10573,7 @@
         <v>119.260002</v>
       </c>
       <c r="C50">
-        <v>116.2129996999999</v>
+        <v>116.2129997</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -10584,7 +10584,7 @@
         <v>119.209999</v>
       </c>
       <c r="C51">
-        <v>115.1729995999999</v>
+        <v>115.1729996</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -10595,7 +10595,7 @@
         <v>119.489998</v>
       </c>
       <c r="C52">
-        <v>114.7839996999999</v>
+        <v>114.7839997</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -10606,7 +10606,7 @@
         <v>115.970001</v>
       </c>
       <c r="C53">
-        <v>113.9549995999999</v>
+        <v>113.9549996</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -10617,7 +10617,7 @@
         <v>116.32</v>
       </c>
       <c r="C54">
-        <v>114.0179992999999</v>
+        <v>114.0179993</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -10628,7 +10628,7 @@
         <v>118.690002</v>
       </c>
       <c r="C55">
-        <v>113.8909995999999</v>
+        <v>113.8909996</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -10639,7 +10639,7 @@
         <v>119.029999</v>
       </c>
       <c r="C56">
-        <v>113.5259994999999</v>
+        <v>113.5259995</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -10650,7 +10650,7 @@
         <v>114.949997</v>
       </c>
       <c r="C57">
-        <v>113.1979995999999</v>
+        <v>113.1979996</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -10661,7 +10661,7 @@
         <v>110.440002</v>
       </c>
       <c r="C58">
-        <v>113.3900001999999</v>
+        <v>113.3900002</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -10672,7 +10672,7 @@
         <v>108.769997</v>
       </c>
       <c r="C59">
-        <v>114.0970001999999</v>
+        <v>114.0970002</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -10683,7 +10683,7 @@
         <v>108.860001</v>
       </c>
       <c r="C60">
-        <v>114.8180007999999</v>
+        <v>114.8180008</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -10694,7 +10694,7 @@
         <v>115.32</v>
       </c>
       <c r="C61">
-        <v>115.8340003999999</v>
+        <v>115.8340004</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -10705,7 +10705,7 @@
         <v>111.199997</v>
       </c>
       <c r="C62">
-        <v>116.3730002999999</v>
+        <v>116.3730003</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -10716,7 +10716,7 @@
         <v>116.599998</v>
       </c>
       <c r="C63">
-        <v>117.3720007999999</v>
+        <v>117.3720008</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -10727,7 +10727,7 @@
         <v>115.050003</v>
       </c>
       <c r="C64">
-        <v>117.8220007999999</v>
+        <v>117.8220008</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -10738,7 +10738,7 @@
         <v>115.040001</v>
       </c>
       <c r="C65">
-        <v>118.7570006999999</v>
+        <v>118.7570007</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -10749,7 +10749,7 @@
         <v>115.75</v>
       </c>
       <c r="C66">
-        <v>118.9500006999999</v>
+        <v>118.9500007</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -10760,7 +10760,7 @@
         <v>116.870003</v>
       </c>
       <c r="C67">
-        <v>118.8720007999999</v>
+        <v>118.8720008</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -10771,7 +10771,7 @@
         <v>117.510002</v>
       </c>
       <c r="C68">
-        <v>118.6930006999999</v>
+        <v>118.6930007</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -10782,7 +10782,7 @@
         <v>115.980003</v>
       </c>
       <c r="C69">
-        <v>118.2580008999999</v>
+        <v>118.2580009</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -10793,7 +10793,7 @@
         <v>119.019997</v>
       </c>
       <c r="C70">
-        <v>118.3100005999999</v>
+        <v>118.3100006</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -10804,7 +10804,7 @@
         <v>120.709999</v>
       </c>
       <c r="C71">
-        <v>117.7100005999999</v>
+        <v>117.7100006</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -10815,7 +10815,7 @@
         <v>121.190002</v>
       </c>
       <c r="C72">
-        <v>117.3180007999999</v>
+        <v>117.3180008</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -10826,7 +10826,7 @@
         <v>121.099998</v>
       </c>
       <c r="C73">
-        <v>116.7800003999999</v>
+        <v>116.7800004</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -10837,7 +10837,7 @@
         <v>124.400002</v>
       </c>
       <c r="C74">
-        <v>116.0790001999999</v>
+        <v>116.0790002</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -10848,7 +10848,7 @@
         <v>116.970001</v>
       </c>
       <c r="C75">
-        <v>115.1349998999999</v>
+        <v>115.1349999</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -10859,7 +10859,7 @@
         <v>114.970001</v>
       </c>
       <c r="C76">
-        <v>114.6659996999999</v>
+        <v>114.6659997</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -10870,7 +10870,7 @@
         <v>115.080002</v>
       </c>
       <c r="C77">
-        <v>113.9909996999999</v>
+        <v>113.9909997</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -10881,7 +10881,7 @@
         <v>113.160004</v>
       </c>
       <c r="C78">
-        <v>113.1949997999999</v>
+        <v>113.1949998</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -10892,7 +10892,7 @@
         <v>116.5</v>
       </c>
       <c r="C79">
-        <v>113.0599991999999</v>
+        <v>113.0599992</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -10903,7 +10903,7 @@
         <v>113.019997</v>
       </c>
       <c r="C80">
-        <v>112.4179993999999</v>
+        <v>112.4179994</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -10914,7 +10914,7 @@
         <v>116.790001</v>
       </c>
       <c r="C81">
-        <v>111.7999992999999</v>
+        <v>111.7999993</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -10925,7 +10925,7 @@
         <v>115.809998</v>
       </c>
       <c r="C82">
-        <v>111.1549987999998</v>
+        <v>111.1549988</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -10936,7 +10936,7 @@
         <v>114.089996</v>
       </c>
       <c r="C83">
-        <v>110.7869986999998</v>
+        <v>110.7869987</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -10947,7 +10947,7 @@
         <v>114.959999</v>
       </c>
       <c r="C84">
-        <v>110.9319991999999</v>
+        <v>110.9319992</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -10958,7 +10958,7 @@
         <v>112.279999</v>
       </c>
       <c r="C85">
-        <v>110.9719993999999</v>
+        <v>110.9719994</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -10969,7 +10969,7 @@
         <v>108.220001</v>
       </c>
       <c r="C86">
-        <v>110.9439994999999</v>
+        <v>110.9439995</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -10980,7 +10980,7 @@
         <v>107.120003</v>
       </c>
       <c r="C87">
-        <v>111.4709991999999</v>
+        <v>111.4709992</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -10991,7 +10991,7 @@
         <v>111.809998</v>
       </c>
       <c r="C88">
-        <v>112.4909988999999</v>
+        <v>112.4909989</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -11002,7 +11002,7 @@
         <v>110.080002</v>
       </c>
       <c r="C89">
-        <v>112.5919990999999</v>
+        <v>112.5919991</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -11013,7 +11013,7 @@
         <v>106.839996</v>
       </c>
       <c r="C90">
-        <v>113.6799987999999</v>
+        <v>113.6799988</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -11024,7 +11024,7 @@
         <v>110.339996</v>
       </c>
       <c r="C91">
-        <v>115.0839988999999</v>
+        <v>115.0839989</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -11035,7 +11035,7 @@
         <v>112.129997</v>
       </c>
       <c r="C92">
-        <v>117.1899986999999</v>
+        <v>117.1899987</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -11046,7 +11046,7 @@
         <v>115.540001</v>
       </c>
       <c r="C93">
-        <v>119.3949982999999</v>
+        <v>119.3949983</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -11057,7 +11057,7 @@
         <v>115.360001</v>
       </c>
       <c r="C94">
-        <v>120.7449974999999</v>
+        <v>120.7449975</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -11068,7 +11068,7 @@
         <v>112</v>
       </c>
       <c r="C95">
-        <v>121.6897476999999</v>
+        <v>121.6897477</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -11079,7 +11079,7 @@
         <v>113.489998</v>
       </c>
       <c r="C96">
-        <v>122.9907478999999</v>
+        <v>122.9907479</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -11090,7 +11090,7 @@
         <v>117.32</v>
       </c>
       <c r="C97">
-        <v>124.2939979999998</v>
+        <v>124.293998</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -11101,7 +11101,7 @@
         <v>112.82</v>
       </c>
       <c r="C98">
-        <v>125.0444976999999</v>
+        <v>125.0444977</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -11112,7 +11112,7 @@
         <v>120.959999</v>
       </c>
       <c r="C99">
-        <v>126.3482474999999</v>
+        <v>126.3482475</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -11123,7 +11123,7 @@
         <v>120.879997</v>
       </c>
       <c r="C100">
-        <v>126.6892478999999</v>
+        <v>126.6892479</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -11134,7 +11134,7 @@
         <v>131.399994</v>
       </c>
       <c r="C101">
-        <v>126.4287483999999</v>
+        <v>126.4287484</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -11145,7 +11145,7 @@
         <v>134.179993</v>
       </c>
       <c r="C102">
-        <v>124.8594986999999</v>
+        <v>124.8594987</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -11156,7 +11156,7 @@
         <v>129.039993</v>
       </c>
       <c r="C103">
-        <v>122.9977493999999</v>
+        <v>122.9977494</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -11167,7 +11167,7 @@
         <v>124.807503</v>
       </c>
       <c r="C104">
-        <v>121.5544998999999</v>
+        <v>121.5544999</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -11178,7 +11178,7 @@
         <v>125.010002</v>
       </c>
       <c r="C105">
-        <v>120.5644996999999</v>
+        <v>120.5644997</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -11189,7 +11189,7 @@
         <v>126.522499</v>
       </c>
       <c r="C106">
-        <v>119.5644996999999</v>
+        <v>119.5644997</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -11200,7 +11200,7 @@
         <v>124.824997</v>
       </c>
       <c r="C107">
-        <v>118.2132499999999</v>
+        <v>118.21325</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -11211,7 +11211,7 @@
         <v>125.857498</v>
       </c>
       <c r="C108">
-        <v>116.6682502999999</v>
+        <v>116.6682503</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -11222,7 +11222,7 @@
         <v>124.370003</v>
       </c>
       <c r="C109">
-        <v>115.3552505999999</v>
+        <v>115.3552506</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -11233,7 +11233,7 @@
         <v>118.275002</v>
       </c>
       <c r="C110">
-        <v>114.0295005999999</v>
+        <v>114.0295006</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -11244,7 +11244,7 @@
         <v>115.707497</v>
       </c>
       <c r="C111">
-        <v>113.5922499999999</v>
+        <v>113.59225</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -11255,7 +11255,7 @@
         <v>115.5625</v>
       </c>
       <c r="C112">
-        <v>113.0277502999999</v>
+        <v>113.0277503</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -11266,7 +11266,7 @@
         <v>114.607498</v>
       </c>
       <c r="C113">
-        <v>112.4380003999999</v>
+        <v>112.4380004</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -11277,7 +11277,7 @@
         <v>114.907501</v>
       </c>
       <c r="C114">
-        <v>111.8710005999999</v>
+        <v>111.8710006</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -11288,7 +11288,7 @@
         <v>115.010002</v>
       </c>
       <c r="C115">
-        <v>111.0062506999999</v>
+        <v>111.0062507</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -11299,7 +11299,7 @@
         <v>113.010002</v>
       </c>
       <c r="C116">
-        <v>109.1242506999999</v>
+        <v>109.1242507</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -11310,7 +11310,7 @@
         <v>109.375</v>
       </c>
       <c r="C117">
-        <v>107.3272505999999</v>
+        <v>107.3272506</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -11321,7 +11321,7 @@
         <v>112.727501</v>
       </c>
       <c r="C118">
-        <v>105.7150007999999</v>
+        <v>105.7150008</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -11332,7 +11332,7 @@
         <v>111.112503</v>
       </c>
       <c r="C119">
-        <v>103.9232504999999</v>
+        <v>103.9232505</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -11343,7 +11343,7 @@
         <v>113.902496</v>
       </c>
       <c r="C120">
-        <v>102.0734999999999</v>
+        <v>102.0735</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -11354,7 +11354,7 @@
         <v>110.0625</v>
       </c>
       <c r="C121">
-        <v>99.96775049999991</v>
+        <v>99.96775049999999</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -11365,7 +11365,7 @@
         <v>109.665001</v>
       </c>
       <c r="C122">
-        <v>98.68875039999992</v>
+        <v>98.6887504</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -11376,7 +11376,7 @@
         <v>108.9375</v>
       </c>
       <c r="C123">
-        <v>97.42225029999992</v>
+        <v>97.4222503</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -11387,7 +11387,7 @@
         <v>106.260002</v>
       </c>
       <c r="C124">
-        <v>96.36425009999991</v>
+        <v>96.36425010000001</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -11398,7 +11398,7 @@
         <v>96.19000200000001</v>
       </c>
       <c r="C125">
-        <v>95.37099979999991</v>
+        <v>95.37099979999999</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -11409,7 +11409,7 @@
         <v>95.040001</v>
       </c>
       <c r="C126">
-        <v>95.40424949999991</v>
+        <v>95.40424950000001</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -11420,7 +11420,7 @@
         <v>93.25250200000001</v>
       </c>
       <c r="C127">
-        <v>95.67274919999991</v>
+        <v>95.6727492</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -11431,7 +11431,7 @@
         <v>94.80999799999999</v>
       </c>
       <c r="C128">
-        <v>96.05324929999992</v>
+        <v>96.0532493</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -11442,7 +11442,7 @@
         <v>92.614998</v>
       </c>
       <c r="C129">
-        <v>96.1199995999999</v>
+        <v>96.1199996</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -11453,7 +11453,7 @@
         <v>92.845001</v>
       </c>
       <c r="C130">
-        <v>96.4504995999999</v>
+        <v>96.45049959999999</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -11464,7 +11464,7 @@
         <v>97.272499</v>
       </c>
       <c r="C131">
-        <v>96.7412496999999</v>
+        <v>96.7412497</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -11475,7 +11475,7 @@
         <v>97</v>
       </c>
       <c r="C132">
-        <v>96.5482496999999</v>
+        <v>96.5482497</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -11483,10 +11483,10 @@
         <v>44032</v>
       </c>
       <c r="B133">
-        <v>98.35749799999999</v>
+        <v>98.35749800000001</v>
       </c>
       <c r="C133">
-        <v>96.16549979999992</v>
+        <v>96.16549979999999</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -11497,7 +11497,7 @@
         <v>96.327499</v>
       </c>
       <c r="C134">
-        <v>95.67600019999992</v>
+        <v>95.6760002</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -11508,7 +11508,7 @@
         <v>96.522499</v>
       </c>
       <c r="C135">
-        <v>95.14599989999991</v>
+        <v>95.14599990000001</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -11519,7 +11519,7 @@
         <v>97.724998</v>
       </c>
       <c r="C136">
-        <v>94.59649959999993</v>
+        <v>94.5964996</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -11530,7 +11530,7 @@
         <v>97.057503</v>
       </c>
       <c r="C137">
-        <v>93.94399949999993</v>
+        <v>93.94399949999999</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -11541,7 +11541,7 @@
         <v>95.477501</v>
       </c>
       <c r="C138">
-        <v>93.28274919999993</v>
+        <v>93.2827492</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -11549,10 +11549,10 @@
         <v>44022</v>
       </c>
       <c r="B139">
-        <v>95.91999799999999</v>
+        <v>95.91999800000001</v>
       </c>
       <c r="C139">
-        <v>92.57574919999993</v>
+        <v>92.5757492</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -11563,7 +11563,7 @@
         <v>95.75250200000001</v>
       </c>
       <c r="C140">
-        <v>92.10474929999994</v>
+        <v>92.10474930000001</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -11574,7 +11574,7 @@
         <v>95.342499</v>
       </c>
       <c r="C141">
-        <v>91.53099899999992</v>
+        <v>91.53099899999999</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -11585,7 +11585,7 @@
         <v>93.172501</v>
       </c>
       <c r="C142">
-        <v>91.15999909999992</v>
+        <v>91.15999910000001</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -11596,7 +11596,7 @@
         <v>93.462502</v>
       </c>
       <c r="C143">
-        <v>90.81449889999992</v>
+        <v>90.8144989</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -11607,7 +11607,7 @@
         <v>91.027496</v>
       </c>
       <c r="C144">
-        <v>90.21124869999991</v>
+        <v>90.21124869999998</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -11618,7 +11618,7 @@
         <v>91.027496</v>
       </c>
       <c r="C145">
-        <v>89.90174939999991</v>
+        <v>89.9017494</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -11629,7 +11629,7 @@
         <v>91.199997</v>
       </c>
       <c r="C146">
-        <v>89.58874969999991</v>
+        <v>89.58874969999999</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -11640,7 +11640,7 @@
         <v>90.44499999999999</v>
       </c>
       <c r="C147">
-        <v>89.27074969999993</v>
+        <v>89.2707497</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -11651,7 +11651,7 @@
         <v>88.407501</v>
       </c>
       <c r="C148">
-        <v>88.80099949999992</v>
+        <v>88.8009995</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -11662,7 +11662,7 @@
         <v>91.209999</v>
       </c>
       <c r="C149">
-        <v>88.43024909999991</v>
+        <v>88.4302491</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -11673,7 +11673,7 @@
         <v>90.014999</v>
       </c>
       <c r="C150">
-        <v>87.70674899999992</v>
+        <v>87.706749</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -11684,7 +11684,7 @@
         <v>91.63249999999999</v>
       </c>
       <c r="C151">
-        <v>87.52624899999992</v>
+        <v>87.52624899999999</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -11695,7 +11695,7 @@
         <v>89.717499</v>
       </c>
       <c r="C152">
-        <v>86.9627487999999</v>
+        <v>86.9627488</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -11706,7 +11706,7 @@
         <v>87.43000000000001</v>
       </c>
       <c r="C153">
-        <v>86.32749869999991</v>
+        <v>86.32749870000001</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -11717,7 +11717,7 @@
         <v>87.932503</v>
       </c>
       <c r="C154">
-        <v>85.87199869999991</v>
+        <v>85.87199869999999</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -11728,7 +11728,7 @@
         <v>87.897499</v>
       </c>
       <c r="C155">
-        <v>85.1367485999999</v>
+        <v>85.13674859999999</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -11739,7 +11739,7 @@
         <v>88.019997</v>
       </c>
       <c r="C156">
-        <v>84.47499859999991</v>
+        <v>84.47499860000001</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -11750,7 +11750,7 @@
         <v>85.74749799999999</v>
       </c>
       <c r="C157">
-        <v>83.7564987999999</v>
+        <v>83.7564988</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -11761,7 +11761,7 @@
         <v>84.699997</v>
       </c>
       <c r="C158">
-        <v>83.22799919999991</v>
+        <v>83.2279992</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -11772,7 +11772,7 @@
         <v>83.974998</v>
       </c>
       <c r="C159">
-        <v>82.70649959999992</v>
+        <v>82.7064996</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -11783,7 +11783,7 @@
         <v>88.209999</v>
       </c>
       <c r="C160">
-        <v>82.26524979999991</v>
+        <v>82.26524979999999</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -11794,7 +11794,7 @@
         <v>85.99749799999999</v>
       </c>
       <c r="C161">
-        <v>81.39699949999991</v>
+        <v>81.39699949999999</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -11805,7 +11805,7 @@
         <v>83.364998</v>
       </c>
       <c r="C162">
-        <v>80.71549999999992</v>
+        <v>80.71549999999999</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -11816,7 +11816,7 @@
         <v>82.875</v>
       </c>
       <c r="C163">
-        <v>80.35125059999991</v>
+        <v>80.35125059999999</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -11824,10 +11824,10 @@
         <v>43986</v>
       </c>
       <c r="B164">
-        <v>80.58000200000001</v>
+        <v>80.58000199999999</v>
       </c>
       <c r="C164">
-        <v>79.98500079999991</v>
+        <v>79.98500079999999</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -11838,7 +11838,7 @@
         <v>81.279999</v>
       </c>
       <c r="C165">
-        <v>79.90775089999991</v>
+        <v>79.90775090000001</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -11849,7 +11849,7 @@
         <v>80.834999</v>
       </c>
       <c r="C166">
-        <v>79.6082513999999</v>
+        <v>79.6082514</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -11860,7 +11860,7 @@
         <v>80.462502</v>
       </c>
       <c r="C167">
-        <v>79.3987512999999</v>
+        <v>79.3987513</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -11871,7 +11871,7 @@
         <v>79.485001</v>
       </c>
       <c r="C168">
-        <v>79.0452508999999</v>
+        <v>79.0452509</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -11882,7 +11882,7 @@
         <v>79.5625</v>
       </c>
       <c r="C169">
-        <v>78.8352509999999</v>
+        <v>78.835251</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -11893,7 +11893,7 @@
         <v>79.527496</v>
       </c>
       <c r="C170">
-        <v>78.57025079999991</v>
+        <v>78.57025080000001</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -11904,7 +11904,7 @@
         <v>79.182503</v>
       </c>
       <c r="C171">
-        <v>78.40275129999989</v>
+        <v>78.40275130000001</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -11915,7 +11915,7 @@
         <v>79.722504</v>
       </c>
       <c r="C172">
-        <v>78.35975119999991</v>
+        <v>78.35975120000001</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -11926,7 +11926,7 @@
         <v>79.212502</v>
       </c>
       <c r="C173">
-        <v>78.14075089999992</v>
+        <v>78.1407509</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -11937,7 +11937,7 @@
         <v>79.807503</v>
       </c>
       <c r="C174">
-        <v>77.8130004999999</v>
+        <v>77.8130005</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -11948,7 +11948,7 @@
         <v>78.285004</v>
       </c>
       <c r="C175">
-        <v>77.34800029999991</v>
+        <v>77.3480003</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -11959,7 +11959,7 @@
         <v>78.739998</v>
       </c>
       <c r="C176">
-        <v>76.95849979999991</v>
+        <v>76.9584998</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -11970,7 +11970,7 @@
         <v>76.927498</v>
       </c>
       <c r="C177">
-        <v>76.41350009999991</v>
+        <v>76.41350009999999</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -11981,7 +11981,7 @@
         <v>77.385002</v>
       </c>
       <c r="C178">
-        <v>75.9475004999999</v>
+        <v>75.9475005</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -11992,7 +11992,7 @@
         <v>76.912498</v>
       </c>
       <c r="C179">
-        <v>75.5539999999999</v>
+        <v>75.554</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -12003,7 +12003,7 @@
         <v>77.852501</v>
       </c>
       <c r="C180">
-        <v>75.0560004999999</v>
+        <v>75.0560005</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -12014,7 +12014,7 @@
         <v>78.75250200000001</v>
       </c>
       <c r="C181">
-        <v>74.2352500999999</v>
+        <v>74.2352501</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -12025,7 +12025,7 @@
         <v>77.532501</v>
       </c>
       <c r="C182">
-        <v>73.4392501999999</v>
+        <v>73.43925019999999</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -12036,7 +12036,7 @@
         <v>75.93499799999999</v>
       </c>
       <c r="C183">
-        <v>72.76025009999989</v>
+        <v>72.76025010000001</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -12047,7 +12047,7 @@
         <v>75.157501</v>
       </c>
       <c r="C184">
-        <v>72.0425002999999</v>
+        <v>72.0425003</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -12058,7 +12058,7 @@
         <v>74.389999</v>
       </c>
       <c r="C185">
-        <v>71.4292503999999</v>
+        <v>71.4292504</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -12069,7 +12069,7 @@
         <v>73.290001</v>
       </c>
       <c r="C186">
-        <v>70.69950039999989</v>
+        <v>70.69950040000001</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -12077,10 +12077,10 @@
         <v>43952</v>
       </c>
       <c r="B187">
-        <v>72.26750200000001</v>
+        <v>72.26750199999999</v>
       </c>
       <c r="C187">
-        <v>70.2937500999999</v>
+        <v>70.2937501</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -12091,7 +12091,7 @@
         <v>73.449997</v>
       </c>
       <c r="C188">
-        <v>70.1369995999999</v>
+        <v>70.1369996</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -12102,7 +12102,7 @@
         <v>71.932503</v>
       </c>
       <c r="C189">
-        <v>69.9592499999999</v>
+        <v>69.95925</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -12113,7 +12113,7 @@
         <v>69.644997</v>
       </c>
       <c r="C190">
-        <v>69.87674949999989</v>
+        <v>69.8767495</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -12124,7 +12124,7 @@
         <v>70.792503</v>
       </c>
       <c r="C191">
-        <v>70.08849949999988</v>
+        <v>70.0884995</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -12135,7 +12135,7 @@
         <v>70.74250000000001</v>
       </c>
       <c r="C192">
-        <v>69.84049919999988</v>
+        <v>69.8404992</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -12146,7 +12146,7 @@
         <v>68.75749999999999</v>
       </c>
       <c r="C193">
-        <v>69.46599899999988</v>
+        <v>69.465999</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -12157,7 +12157,7 @@
         <v>69.025002</v>
       </c>
       <c r="C194">
-        <v>69.2419991999999</v>
+        <v>69.2419992</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -12168,7 +12168,7 @@
         <v>67.092499</v>
       </c>
       <c r="C195">
-        <v>68.8252487999999</v>
+        <v>68.82524880000001</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -12176,10 +12176,10 @@
         <v>43941</v>
       </c>
       <c r="B196">
-        <v>69.23249799999999</v>
+        <v>69.23249800000001</v>
       </c>
       <c r="C196">
-        <v>68.6777488999999</v>
+        <v>68.6777489</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -12190,7 +12190,7 @@
         <v>70.699997</v>
       </c>
       <c r="C197">
-        <v>67.7897491999999</v>
+        <v>67.78974919999999</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -12201,7 +12201,7 @@
         <v>71.672501</v>
       </c>
       <c r="C198">
-        <v>66.8429992999999</v>
+        <v>66.8429993</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -12209,10 +12209,10 @@
         <v>43936</v>
       </c>
       <c r="B199">
-        <v>71.10749799999999</v>
+        <v>71.10749800000001</v>
       </c>
       <c r="C199">
-        <v>65.6984992999999</v>
+        <v>65.69849930000001</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -12223,7 +12223,7 @@
         <v>71.762497</v>
       </c>
       <c r="C200">
-        <v>64.94499929999991</v>
+        <v>64.94499929999999</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -12234,7 +12234,7 @@
         <v>68.3125</v>
       </c>
       <c r="C201">
-        <v>64.13899949999991</v>
+        <v>64.1389995</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -12245,7 +12245,7 @@
         <v>66.99749799999999</v>
       </c>
       <c r="C202">
-        <v>63.50124959999992</v>
+        <v>63.50124960000001</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -12253,10 +12253,10 @@
         <v>43929</v>
       </c>
       <c r="B203">
-        <v>66.51750200000001</v>
+        <v>66.51750199999999</v>
       </c>
       <c r="C203">
-        <v>63.26249989999992</v>
+        <v>63.2624999</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -12264,10 +12264,10 @@
         <v>43928</v>
       </c>
       <c r="B204">
-        <v>64.85749799999999</v>
+        <v>64.85749800000001</v>
       </c>
       <c r="C204">
-        <v>62.74874979999991</v>
+        <v>62.74874980000001</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -12278,7 +12278,7 @@
         <v>65.61750000000001</v>
       </c>
       <c r="C205">
-        <v>62.43500009999993</v>
+        <v>62.43500009999999</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -12289,7 +12289,7 @@
         <v>60.352501</v>
       </c>
       <c r="C206">
-        <v>61.48249999999992</v>
+        <v>61.4825</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -12300,7 +12300,7 @@
         <v>61.232498</v>
       </c>
       <c r="C207">
-        <v>61.17824999999991</v>
+        <v>61.17825000000001</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -12311,7 +12311,7 @@
         <v>60.227501</v>
       </c>
       <c r="C208">
-        <v>61.17450019999992</v>
+        <v>61.1745002</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -12322,7 +12322,7 @@
         <v>63.572498</v>
       </c>
       <c r="C209">
-        <v>61.31850009999992</v>
+        <v>61.31850010000001</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -12333,7 +12333,7 @@
         <v>63.702499</v>
       </c>
       <c r="C210">
-        <v>61.28275029999993</v>
+        <v>61.2827503</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -12344,7 +12344,7 @@
         <v>61.935001</v>
       </c>
       <c r="C211">
-        <v>60.96775059999993</v>
+        <v>60.9677506</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -12355,7 +12355,7 @@
         <v>64.610001</v>
       </c>
       <c r="C212">
-        <v>61.72350049999994</v>
+        <v>61.7235005</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -12366,7 +12366,7 @@
         <v>61.380001</v>
       </c>
       <c r="C213">
-        <v>61.46825029999994</v>
+        <v>61.4682503</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -12377,7 +12377,7 @@
         <v>61.720001</v>
       </c>
       <c r="C214">
-        <v>62.21599999999994</v>
+        <v>62.21599999999999</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -12388,7 +12388,7 @@
         <v>56.092499</v>
       </c>
       <c r="C215">
-        <v>63.17749979999994</v>
+        <v>63.17749980000001</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -12399,7 +12399,7 @@
         <v>57.310001</v>
       </c>
       <c r="C216">
-        <v>64.22250019999994</v>
+        <v>64.2225002</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -12410,7 +12410,7 @@
         <v>61.195</v>
       </c>
       <c r="C217">
-        <v>65.71725009999994</v>
+        <v>65.7172501</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -12421,7 +12421,7 @@
         <v>61.6675</v>
       </c>
       <c r="C218">
-        <v>66.92075039999995</v>
+        <v>66.9207504</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -12432,7 +12432,7 @@
         <v>63.215</v>
       </c>
       <c r="C219">
-        <v>68.32250019999994</v>
+        <v>68.32250019999999</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -12443,7 +12443,7 @@
         <v>60.552502</v>
       </c>
       <c r="C220">
-        <v>69.23400039999993</v>
+        <v>69.2340004</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -12454,7 +12454,7 @@
         <v>69.49250000000001</v>
       </c>
       <c r="C221">
-        <v>70.64900009999994</v>
+        <v>70.64900009999999</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -12465,7 +12465,7 @@
         <v>62.057499</v>
       </c>
       <c r="C222">
-        <v>70.53374969999993</v>
+        <v>70.5337497</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -12473,10 +12473,10 @@
         <v>43901</v>
       </c>
       <c r="B223">
-        <v>68.85749799999999</v>
+        <v>68.85749800000001</v>
       </c>
       <c r="C223">
-        <v>71.16599949999993</v>
+        <v>71.1659995</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -12487,7 +12487,7 @@
         <v>71.334999</v>
       </c>
       <c r="C224">
-        <v>71.59649949999994</v>
+        <v>71.59649949999999</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -12498,7 +12498,7 @@
         <v>66.542503</v>
       </c>
       <c r="C225">
-        <v>71.66499929999993</v>
+        <v>71.66499930000001</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -12509,7 +12509,7 @@
         <v>72.25749999999999</v>
       </c>
       <c r="C226">
-        <v>72.46524879999993</v>
+        <v>72.4652488</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -12520,7 +12520,7 @@
         <v>73.230003</v>
       </c>
       <c r="C227">
-        <v>73.06574849999993</v>
+        <v>73.06574850000001</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -12531,7 +12531,7 @@
         <v>75.68499799999999</v>
       </c>
       <c r="C228">
-        <v>73.75024789999993</v>
+        <v>73.75024790000001</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -12539,10 +12539,10 @@
         <v>43893</v>
       </c>
       <c r="B229">
-        <v>72.33000200000001</v>
+        <v>72.33000199999999</v>
       </c>
       <c r="C229">
-        <v>74.27224799999993</v>
+        <v>74.272248</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -12553,7 +12553,7 @@
         <v>74.702499</v>
       </c>
       <c r="C230">
-        <v>75.01424779999994</v>
+        <v>75.01424779999999</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -12564,7 +12564,7 @@
         <v>68.339996</v>
       </c>
       <c r="C231">
-        <v>75.66774819999993</v>
+        <v>75.66774820000001</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -12575,7 +12575,7 @@
         <v>68.379997</v>
       </c>
       <c r="C232">
-        <v>76.95549849999993</v>
+        <v>76.9554985</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -12586,7 +12586,7 @@
         <v>73.162498</v>
       </c>
       <c r="C233">
-        <v>78.29749909999994</v>
+        <v>78.29749910000001</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -12597,7 +12597,7 @@
         <v>72.019997</v>
       </c>
       <c r="C234">
-        <v>78.97149889999994</v>
+        <v>78.9714989</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -12605,10 +12605,10 @@
         <v>43885</v>
       </c>
       <c r="B235">
-        <v>74.54499799999999</v>
+        <v>74.54499800000001</v>
       </c>
       <c r="C235">
-        <v>79.80824889999994</v>
+        <v>79.8082489</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -12619,7 +12619,7 @@
         <v>78.262497</v>
       </c>
       <c r="C236">
-        <v>80.35449909999996</v>
+        <v>80.3544991</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -12630,7 +12630,7 @@
         <v>80.074997</v>
       </c>
       <c r="C237">
-        <v>80.65849919999997</v>
+        <v>80.65849920000001</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -12641,7 +12641,7 @@
         <v>80.904999</v>
       </c>
       <c r="C238">
-        <v>80.68724979999996</v>
+        <v>80.6872498</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -12652,7 +12652,7 @@
         <v>79.75</v>
       </c>
       <c r="C239">
-        <v>80.56800009999996</v>
+        <v>80.56800010000001</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -12663,7 +12663,7 @@
         <v>81.237503</v>
       </c>
       <c r="C240">
-        <v>80.30950019999996</v>
+        <v>80.3095002</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -12674,7 +12674,7 @@
         <v>81.217499</v>
       </c>
       <c r="C241">
-        <v>79.92350009999997</v>
+        <v>79.9235001</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -12685,7 +12685,7 @@
         <v>81.800003</v>
       </c>
       <c r="C242">
-        <v>79.89850009999996</v>
+        <v>79.89850010000001</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -12696,7 +12696,7 @@
         <v>79.902496</v>
       </c>
       <c r="C243">
-        <v>79.82699969999997</v>
+        <v>79.82699970000002</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -12707,7 +12707,7 @@
         <v>80.387497</v>
       </c>
       <c r="C244">
-        <v>79.77900019999997</v>
+        <v>79.77900020000001</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -12718,7 +12718,7 @@
         <v>80.00749999999999</v>
       </c>
       <c r="C245">
-        <v>79.46400079999998</v>
+        <v>79.46400079999999</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -12893,7 +12893,7 @@
         <v>1.653950115468689</v>
       </c>
       <c r="D5">
-        <v>1.717893223565505</v>
+        <v>1.717893223565506</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -12907,7 +12907,7 @@
         <v>1.168345303618139</v>
       </c>
       <c r="D6">
-        <v>1.733879000589709</v>
+        <v>1.73387900058971</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12921,7 +12921,7 @@
         <v>1.024342459348958</v>
       </c>
       <c r="D7">
-        <v>1.875262424832602</v>
+        <v>1.875262424832603</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12935,7 +12935,7 @@
         <v>1.253278996891225</v>
       </c>
       <c r="D8">
-        <v>2.087992416203512</v>
+        <v>2.087992416203514</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12949,7 +12949,7 @@
         <v>1.597510606672245</v>
       </c>
       <c r="D9">
-        <v>2.296670771031584</v>
+        <v>2.296670771031586</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12963,7 +12963,7 @@
         <v>1.833420107059311</v>
       </c>
       <c r="D10">
-        <v>2.471460812121419</v>
+        <v>2.471460812121421</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -12977,7 +12977,7 @@
         <v>1.906258995087029</v>
       </c>
       <c r="D11">
-        <v>2.630970988386945</v>
+        <v>2.630970988386949</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -12991,7 +12991,7 @@
         <v>2.184300092241159</v>
       </c>
       <c r="D12">
-        <v>2.812148986711924</v>
+        <v>2.812148986711929</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13005,7 +13005,7 @@
         <v>2.489083440358002</v>
       </c>
       <c r="D13">
-        <v>2.969111210329615</v>
+        <v>2.969111210329621</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -13016,10 +13016,10 @@
         <v>130.919998</v>
       </c>
       <c r="C14">
-        <v>2.529310441912813</v>
+        <v>2.529310441912827</v>
       </c>
       <c r="D14">
-        <v>3.089118152822518</v>
+        <v>3.089118152822526</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -13030,10 +13030,10 @@
         <v>126.599998</v>
       </c>
       <c r="C15">
-        <v>2.658919808378599</v>
+        <v>2.658919808378613</v>
       </c>
       <c r="D15">
-        <v>3.229070080549944</v>
+        <v>3.22907008054995</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -13044,10 +13044,10 @@
         <v>131.009995</v>
       </c>
       <c r="C16">
-        <v>3.225527838909429</v>
+        <v>3.225527838909443</v>
       </c>
       <c r="D16">
-        <v>3.37160764859278</v>
+        <v>3.371607648592784</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13058,10 +13058,10 @@
         <v>129.410004</v>
       </c>
       <c r="C17">
-        <v>3.452791080221019</v>
+        <v>3.452791080221033</v>
       </c>
       <c r="D17">
-        <v>3.408127601013617</v>
+        <v>3.40812760101362</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -13845,7 +13845,7 @@
         <v>1.311081049603757</v>
       </c>
       <c r="D73">
-        <v>0.3171823934018843</v>
+        <v>0.3171823934018844</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -13859,7 +13859,7 @@
         <v>0.9898819295927552</v>
       </c>
       <c r="D74">
-        <v>0.06870772935141606</v>
+        <v>0.06870772935141611</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -13887,7 +13887,7 @@
         <v>0.01218417611947586</v>
       </c>
       <c r="D76">
-        <v>-0.2593613666095852</v>
+        <v>-0.2593613666095851</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -13929,7 +13929,7 @@
         <v>-0.102109023942063</v>
       </c>
       <c r="D79">
-        <v>-0.4504216430728109</v>
+        <v>-0.4504216430728108</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -13943,7 +13943,7 @@
         <v>-0.3586088691706379</v>
       </c>
       <c r="D80">
-        <v>-0.5374997978554978</v>
+        <v>-0.5374997978554977</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -13957,7 +13957,7 @@
         <v>-0.3264522371653698</v>
       </c>
       <c r="D81">
-        <v>-0.5822225300267128</v>
+        <v>-0.5822225300267126</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -13971,7 +13971,7 @@
         <v>-0.6645152379562376</v>
       </c>
       <c r="D82">
-        <v>-0.6461651032420485</v>
+        <v>-0.6461651032420483</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -13985,7 +13985,7 @@
         <v>-0.9865587591408627</v>
       </c>
       <c r="D83">
-        <v>-0.6415775695635012</v>
+        <v>-0.6415775695635011</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -13999,7 +13999,7 @@
         <v>-1.208125976956282</v>
       </c>
       <c r="D84">
-        <v>-0.5553322721691608</v>
+        <v>-0.5553322721691607</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -14013,7 +14013,7 @@
         <v>-1.561935698939507</v>
       </c>
       <c r="D85">
-        <v>-0.3921338459723805</v>
+        <v>-0.3921338459723803</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -14027,7 +14027,7 @@
         <v>-1.717933770286251</v>
       </c>
       <c r="D86">
-        <v>-0.09968338273059885</v>
+        <v>-0.09968338273059857</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -14041,7 +14041,7 @@
         <v>-1.478674293782831</v>
       </c>
       <c r="D87">
-        <v>0.3048792141583143</v>
+        <v>0.3048792141583146</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -14055,7 +14055,7 @@
         <v>-1.039784412227078</v>
       </c>
       <c r="D88">
-        <v>0.7507675911436005</v>
+        <v>0.7507675911436009</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -14069,7 +14069,7 @@
         <v>-0.9420039537726268</v>
       </c>
       <c r="D89">
-        <v>1.19840559198627</v>
+        <v>1.198405591986271</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -14083,7 +14083,7 @@
         <v>-0.6273536092904379</v>
       </c>
       <c r="D90">
-        <v>1.733507978425994</v>
+        <v>1.733507978425995</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -14097,7 +14097,7 @@
         <v>0.1132713119837945</v>
       </c>
       <c r="D91">
-        <v>2.323723375355102</v>
+        <v>2.323723375355103</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -14111,7 +14111,7 @@
         <v>0.7005668105995113</v>
       </c>
       <c r="D92">
-        <v>2.876336391197929</v>
+        <v>2.87633639119793</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -14125,7 +14125,7 @@
         <v>1.257724718860302</v>
       </c>
       <c r="D93">
-        <v>3.420278786347533</v>
+        <v>3.420278786347534</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -14153,7 +14153,7 @@
         <v>2.039536062887265</v>
       </c>
       <c r="D95">
-        <v>4.55030507210538</v>
+        <v>4.550305072105381</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -14167,7 +14167,7 @@
         <v>2.908690593461429</v>
       </c>
       <c r="D96">
-        <v>5.177997324409908</v>
+        <v>5.17799732440991</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -14181,7 +14181,7 @@
         <v>3.824030716580282</v>
       </c>
       <c r="D97">
-        <v>5.745324007147028</v>
+        <v>5.74532400714703</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -14195,7 +14195,7 @@
         <v>4.546751459665359</v>
       </c>
       <c r="D98">
-        <v>6.225647329788714</v>
+        <v>6.225647329788716</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -14209,7 +14209,7 @@
         <v>5.861253186880617</v>
       </c>
       <c r="D99">
-        <v>6.645371297319553</v>
+        <v>6.645371297319554</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -14223,7 +14223,7 @@
         <v>6.624980901444388</v>
       </c>
       <c r="D100">
-        <v>6.841400824929287</v>
+        <v>6.841400824929288</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -14237,7 +14237,7 @@
         <v>7.511557484012059</v>
       </c>
       <c r="D101">
-        <v>6.895505805800511</v>
+        <v>6.895505805800513</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -14248,10 +14248,10 @@
         <v>134.179993</v>
       </c>
       <c r="C102">
-        <v>7.462765609630964</v>
+        <v>7.462765609630949</v>
       </c>
       <c r="D102">
-        <v>6.741492886247624</v>
+        <v>6.741492886247625</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -14262,10 +14262,10 @@
         <v>129.039993</v>
       </c>
       <c r="C103">
-        <v>7.008885673826299</v>
+        <v>7.008885673826285</v>
       </c>
       <c r="D103">
-        <v>6.561174705401788</v>
+        <v>6.561174705401793</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -14276,10 +14276,10 @@
         <v>124.807503</v>
       </c>
       <c r="C104">
-        <v>6.850967855052659</v>
+        <v>6.850967855052673</v>
       </c>
       <c r="D104">
-        <v>6.449246963295661</v>
+        <v>6.44924696329567</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -14290,10 +14290,10 @@
         <v>125.010002</v>
       </c>
       <c r="C105">
-        <v>6.980701288471749</v>
+        <v>6.980701288471764</v>
       </c>
       <c r="D105">
-        <v>6.348816740356411</v>
+        <v>6.34881674035642</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -14304,10 +14304,10 @@
         <v>126.522499</v>
       </c>
       <c r="C106">
-        <v>7.024132772021616</v>
+        <v>7.02413277202163</v>
       </c>
       <c r="D106">
-        <v>6.190845603327576</v>
+        <v>6.190845603327583</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -14318,10 +14318,10 @@
         <v>124.824997</v>
       </c>
       <c r="C107">
-        <v>6.823398239795864</v>
+        <v>6.823398239795878</v>
       </c>
       <c r="D107">
-        <v>5.982523811154065</v>
+        <v>5.982523811154071</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -14332,10 +14332,10 @@
         <v>125.857498</v>
       </c>
       <c r="C108">
-        <v>6.640775120630678</v>
+        <v>6.640775120630693</v>
       </c>
       <c r="D108">
-        <v>5.772305203993615</v>
+        <v>5.772305203993618</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -14679,7 +14679,7 @@
         <v>44032</v>
       </c>
       <c r="B133">
-        <v>98.35749799999999</v>
+        <v>98.35749800000001</v>
       </c>
       <c r="C133">
         <v>3.351051833479175</v>
@@ -14763,7 +14763,7 @@
         <v>44022</v>
       </c>
       <c r="B139">
-        <v>95.91999799999999</v>
+        <v>95.91999800000001</v>
       </c>
       <c r="C139">
         <v>3.407414109917326</v>
@@ -15113,7 +15113,7 @@
         <v>43986</v>
       </c>
       <c r="B164">
-        <v>80.58000200000001</v>
+        <v>80.58000199999999</v>
       </c>
       <c r="C164">
         <v>2.220249654401329</v>
@@ -15287,7 +15287,7 @@
         <v>2.618343600383241</v>
       </c>
       <c r="D176">
-        <v>2.367486292998386</v>
+        <v>2.367486292998385</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -15329,7 +15329,7 @@
         <v>2.652713717780287</v>
       </c>
       <c r="D179">
-        <v>2.140302557102779</v>
+        <v>2.140302557102778</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -15343,7 +15343,7 @@
         <v>2.678746460256818</v>
       </c>
       <c r="D180">
-        <v>2.012199766933402</v>
+        <v>2.012199766933401</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -15357,7 +15357,7 @@
         <v>2.577300724868579</v>
       </c>
       <c r="D181">
-        <v>1.845563093602548</v>
+        <v>1.845563093602546</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -15371,7 +15371,7 @@
         <v>2.318694601156778</v>
       </c>
       <c r="D182">
-        <v>1.66262868578604</v>
+        <v>1.662628685786038</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -15385,7 +15385,7 @@
         <v>2.07911096542054</v>
       </c>
       <c r="D183">
-        <v>1.498612206943356</v>
+        <v>1.498612206943353</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -15399,7 +15399,7 @@
         <v>1.905728361765625</v>
       </c>
       <c r="D184">
-        <v>1.35348751732406</v>
+        <v>1.353487517324056</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -15410,10 +15410,10 @@
         <v>74.389999</v>
       </c>
       <c r="C185">
-        <v>1.735872756929496</v>
+        <v>1.735872756929481</v>
       </c>
       <c r="D185">
-        <v>1.215427306213668</v>
+        <v>1.215427306213664</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -15424,10 +15424,10 @@
         <v>73.290001</v>
       </c>
       <c r="C186">
-        <v>1.571971839383309</v>
+        <v>1.571971839383295</v>
       </c>
       <c r="D186">
-        <v>1.085315943534711</v>
+        <v>1.08531594353471</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -15435,13 +15435,13 @@
         <v>43952</v>
       </c>
       <c r="B187">
-        <v>72.26750200000001</v>
+        <v>72.26750199999999</v>
       </c>
       <c r="C187">
-        <v>1.451909419687851</v>
+        <v>1.451909419687837</v>
       </c>
       <c r="D187">
-        <v>0.9636519695725618</v>
+        <v>0.9636519695725632</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -15455,7 +15455,7 @@
         <v>1.381656419717473</v>
       </c>
       <c r="D188">
-        <v>0.8415876070437394</v>
+        <v>0.8415876070437447</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -15469,7 +15469,7 @@
         <v>1.151491733650317</v>
       </c>
       <c r="D189">
-        <v>0.706570403875306</v>
+        <v>0.7065704038753127</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -15483,7 +15483,7 @@
         <v>0.9954774073078738</v>
       </c>
       <c r="D190">
-        <v>0.5953400714315531</v>
+        <v>0.5953400714315614</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -15497,7 +15497,7 @@
         <v>1.014776424851746</v>
       </c>
       <c r="D191">
-        <v>0.4953057374624729</v>
+        <v>0.4953057374624833</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -15511,7 +15511,7 @@
         <v>0.9078116301553649</v>
       </c>
       <c r="D192">
-        <v>0.3654380656151545</v>
+        <v>0.3654380656151676</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -15525,7 +15525,7 @@
         <v>0.7631723375769894</v>
       </c>
       <c r="D193">
-        <v>0.2298446744801018</v>
+        <v>0.2298446744801182</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -15539,7 +15539,7 @@
         <v>0.7695684065031116</v>
       </c>
       <c r="D194">
-        <v>0.09651275870587994</v>
+        <v>0.09651275870590034</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -15550,10 +15550,10 @@
         <v>67.092499</v>
       </c>
       <c r="C195">
-        <v>0.7393018267469387</v>
+        <v>0.7393018267469529</v>
       </c>
       <c r="D195">
-        <v>-0.07175115324342798</v>
+        <v>-0.07175115324340248</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -15561,13 +15561,13 @@
         <v>43941</v>
       </c>
       <c r="B196">
-        <v>69.23249799999999</v>
+        <v>69.23249800000001</v>
       </c>
       <c r="C196">
-        <v>0.8866811256509237</v>
+        <v>0.8866811256509664</v>
       </c>
       <c r="D196">
-        <v>-0.2745143982410196</v>
+        <v>-0.2745143982409913</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -15578,10 +15578,10 @@
         <v>70.699997</v>
       </c>
       <c r="C197">
-        <v>0.8440027162425565</v>
+        <v>0.8440027162426134</v>
       </c>
       <c r="D197">
-        <v>-0.5648132792140055</v>
+        <v>-0.5648132792139807</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -15592,10 +15592,10 @@
         <v>71.672501</v>
       </c>
       <c r="C198">
-        <v>0.6278350632705525</v>
+        <v>0.6278350632705809</v>
       </c>
       <c r="D198">
-        <v>-0.9170172780781459</v>
+        <v>-0.9170172780781292</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -15603,13 +15603,13 @@
         <v>43936</v>
       </c>
       <c r="B199">
-        <v>71.10749799999999</v>
+        <v>71.10749800000001</v>
       </c>
       <c r="C199">
-        <v>0.2437757961932476</v>
+        <v>0.2437757961932761</v>
       </c>
       <c r="D199">
-        <v>-1.30323036341532</v>
+        <v>-1.303230363415307</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -15620,10 +15620,10 @@
         <v>71.762497</v>
       </c>
       <c r="C200">
-        <v>-0.1924417380936916</v>
+        <v>-0.1924417380936774</v>
       </c>
       <c r="D200">
-        <v>-1.689981903317462</v>
+        <v>-1.689981903317452</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -15634,10 +15634,10 @@
         <v>68.3125</v>
       </c>
       <c r="C201">
-        <v>-0.8131055911203902</v>
+        <v>-0.8131055911203759</v>
       </c>
       <c r="D201">
-        <v>-2.064366944623405</v>
+        <v>-2.064366944623396</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -15648,10 +15648,10 @@
         <v>66.99749799999999</v>
       </c>
       <c r="C202">
-        <v>-1.24219895129454</v>
+        <v>-1.242198951294526</v>
       </c>
       <c r="D202">
-        <v>-2.377182282999158</v>
+        <v>-2.377182282999151</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -15659,13 +15659,13 @@
         <v>43929</v>
       </c>
       <c r="B203">
-        <v>66.51750200000001</v>
+        <v>66.51750199999999</v>
       </c>
       <c r="C203">
-        <v>-1.637918651716163</v>
+        <v>-1.637918651716156</v>
       </c>
       <c r="D203">
-        <v>-2.660928115925312</v>
+        <v>-2.660928115925307</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -15673,13 +15673,13 @@
         <v>43928</v>
       </c>
       <c r="B204">
-        <v>64.85749799999999</v>
+        <v>64.85749800000001</v>
       </c>
       <c r="C204">
-        <v>-2.070304296229367</v>
+        <v>-2.070304296229352</v>
       </c>
       <c r="D204">
-        <v>-2.916680481977599</v>
+        <v>-2.916680481977594</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -15690,10 +15690,10 @@
         <v>65.61750000000001</v>
       </c>
       <c r="C205">
-        <v>-2.423053503644681</v>
+        <v>-2.423053503644667</v>
       </c>
       <c r="D205">
-        <v>-3.128274528414657</v>
+        <v>-3.128274528414654</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -15704,7 +15704,7 @@
         <v>60.352501</v>
       </c>
       <c r="C206">
-        <v>-2.915427371965407</v>
+        <v>-2.915427371965386</v>
       </c>
       <c r="D206">
         <v>-3.304579784607151</v>
@@ -15718,10 +15718,10 @@
         <v>61.232498</v>
       </c>
       <c r="C207">
-        <v>-2.965396631211625</v>
+        <v>-2.965396631211618</v>
       </c>
       <c r="D207">
-        <v>-3.401867887767586</v>
+        <v>-3.401867887767592</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -15735,7 +15735,7 @@
         <v>-3.075642229286458</v>
       </c>
       <c r="D208">
-        <v>-3.510985701906576</v>
+        <v>-3.510985701906585</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -15746,10 +15746,10 @@
         <v>63.572498</v>
       </c>
       <c r="C209">
-        <v>-3.069292120221434</v>
+        <v>-3.069292120221441</v>
       </c>
       <c r="D209">
-        <v>-3.619821570061605</v>
+        <v>-3.619821570061616</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -15760,10 +15760,10 @@
         <v>63.702499</v>
       </c>
       <c r="C210">
-        <v>-3.35712433562977</v>
+        <v>-3.357124335629777</v>
       </c>
       <c r="D210">
-        <v>-3.757453932521648</v>
+        <v>-3.75745393252166</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -15774,10 +15774,10 @@
         <v>61.935001</v>
       </c>
       <c r="C211">
-        <v>-3.68890847477816</v>
+        <v>-3.688908474778174</v>
       </c>
       <c r="D211">
-        <v>-3.857536331744617</v>
+        <v>-3.85753633174463</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -15788,10 +15788,10 @@
         <v>64.610001</v>
       </c>
       <c r="C212">
-        <v>-3.878765401839885</v>
+        <v>-3.8787654018399</v>
       </c>
       <c r="D212">
-        <v>-3.899693295986232</v>
+        <v>-3.899693295986244</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -15802,10 +15802,10 @@
         <v>61.380001</v>
       </c>
       <c r="C213">
-        <v>-4.337037110171892</v>
+        <v>-4.337037110171906</v>
       </c>
       <c r="D213">
-        <v>-3.904925269522818</v>
+        <v>-3.90492526952283</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -15816,10 +15816,10 @@
         <v>61.720001</v>
       </c>
       <c r="C214">
-        <v>-4.530001550840424</v>
+        <v>-4.530001550840439</v>
       </c>
       <c r="D214">
-        <v>-3.796897309360549</v>
+        <v>-3.79689730936056</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -15830,10 +15830,10 @@
         <v>56.092499</v>
       </c>
       <c r="C215">
-        <v>-4.74502159619059</v>
+        <v>-4.745021596190604</v>
       </c>
       <c r="D215">
-        <v>-3.61362124899058</v>
+        <v>-3.61362124899059</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -15844,10 +15844,10 @@
         <v>57.310001</v>
       </c>
       <c r="C216">
-        <v>-4.377464845402045</v>
+        <v>-4.377464845402059</v>
       </c>
       <c r="D216">
-        <v>-3.330771162190577</v>
+        <v>-3.330771162190586</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -15858,10 +15858,10 @@
         <v>61.195</v>
       </c>
       <c r="C217">
-        <v>-3.968620398462434</v>
+        <v>-3.968620398462448</v>
       </c>
       <c r="D217">
-        <v>-3.06909774138771</v>
+        <v>-3.069097741387718</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -15872,10 +15872,10 @@
         <v>61.6675</v>
       </c>
       <c r="C218">
-        <v>-3.784624360390964</v>
+        <v>-3.784624360390978</v>
       </c>
       <c r="D218">
-        <v>-2.844217077119028</v>
+        <v>-2.844217077119035</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -15886,10 +15886,10 @@
         <v>63.215</v>
       </c>
       <c r="C219">
-        <v>-3.542838517464972</v>
+        <v>-3.542838517464986</v>
       </c>
       <c r="D219">
-        <v>-2.609115256301044</v>
+        <v>-2.609115256301049</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -15900,10 +15900,10 @@
         <v>60.552502</v>
       </c>
       <c r="C220">
-        <v>-3.340263299512657</v>
+        <v>-3.340263299512671</v>
       </c>
       <c r="D220">
-        <v>-2.375684441010062</v>
+        <v>-2.375684441010065</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -15939,7 +15939,7 @@
         <v>43901</v>
       </c>
       <c r="B223">
-        <v>68.85749799999999</v>
+        <v>68.85749800000001</v>
       </c>
       <c r="C223">
         <v>-2.263484554371317</v>
@@ -16023,7 +16023,7 @@
         <v>43893</v>
       </c>
       <c r="B229">
-        <v>72.33000200000001</v>
+        <v>72.33000199999999</v>
       </c>
       <c r="C229">
         <v>-1.894278834090613</v>
@@ -16107,7 +16107,7 @@
         <v>43885</v>
       </c>
       <c r="B235">
-        <v>74.54499799999999</v>
+        <v>74.54499800000001</v>
       </c>
       <c r="C235">
         <v>0.08162723636428382</v>
@@ -16445,10 +16445,10 @@
         <v>142.080002</v>
       </c>
       <c r="C2">
-        <v>83.91237754742809</v>
+        <v>83.91237754742797</v>
       </c>
       <c r="D2">
-        <v>88.84122571165437</v>
+        <v>88.84122571165425</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -16459,10 +16459,10 @@
         <v>142.919998</v>
       </c>
       <c r="C3">
-        <v>88.40193417434178</v>
+        <v>88.40193417434163</v>
       </c>
       <c r="D3">
-        <v>87.18093535457321</v>
+        <v>87.18093535457312</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -16476,7 +16476,7 @@
         <v>94.2093654131931</v>
       </c>
       <c r="D4">
-        <v>77.31125593179863</v>
+        <v>77.31125593179858</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16490,7 +16490,7 @@
         <v>78.93150647618458</v>
       </c>
       <c r="D5">
-        <v>49.8028573811393</v>
+        <v>49.80285738113921</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -16504,7 +16504,7 @@
         <v>58.79289590601802</v>
       </c>
       <c r="D6">
-        <v>25.5337257434008</v>
+        <v>25.53372574340071</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -16515,10 +16515,10 @@
         <v>127.830002</v>
       </c>
       <c r="C7">
-        <v>11.68416976121513</v>
+        <v>11.68416976121499</v>
       </c>
       <c r="D7">
-        <v>12.73170971744617</v>
+        <v>12.73170971744599</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -16529,10 +16529,10 @@
         <v>127.139999</v>
       </c>
       <c r="C8">
-        <v>6.124111562969089</v>
+        <v>6.124111562969075</v>
       </c>
       <c r="D8">
-        <v>20.95088239082976</v>
+        <v>20.95088239082959</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -16543,10 +16543,10 @@
         <v>128.910004</v>
       </c>
       <c r="C9">
-        <v>20.38684782815415</v>
+        <v>20.38684782815387</v>
       </c>
       <c r="D9">
-        <v>25.40966438130475</v>
+        <v>25.40966438130458</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -16557,10 +16557,10 @@
         <v>130.889999</v>
       </c>
       <c r="C10">
-        <v>36.34168778136588</v>
+        <v>36.34168778136579</v>
       </c>
       <c r="D10">
-        <v>30.63056395788673</v>
+        <v>30.63056395788663</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -16571,10 +16571,10 @@
         <v>128.800003</v>
       </c>
       <c r="C11">
-        <v>19.50045753439409</v>
+        <v>19.50045753439404</v>
       </c>
       <c r="D11">
-        <v>37.20421310357099</v>
+        <v>37.20421310357089</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -16585,10 +16585,10 @@
         <v>128.979996</v>
       </c>
       <c r="C12">
-        <v>36.04954655790007</v>
+        <v>36.04954655790001</v>
       </c>
       <c r="D12">
-        <v>46.93614000942384</v>
+        <v>46.93614000942372</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -16599,10 +16599,10 @@
         <v>132.050003</v>
       </c>
       <c r="C13">
-        <v>56.06263521841868</v>
+        <v>56.06263521841857</v>
       </c>
       <c r="D13">
-        <v>41.76447851311923</v>
+        <v>41.76447851311912</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -16613,10 +16613,10 @@
         <v>130.919998</v>
       </c>
       <c r="C14">
-        <v>48.69623825195263</v>
+        <v>48.69623825195254</v>
       </c>
       <c r="D14">
-        <v>39.50457353443909</v>
+        <v>39.50457353443898</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -16627,10 +16627,10 @@
         <v>126.599998</v>
       </c>
       <c r="C15">
-        <v>20.53456206898624</v>
+        <v>20.5345620689862</v>
       </c>
       <c r="D15">
-        <v>38.48023643568808</v>
+        <v>38.48023643568791</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -16641,10 +16641,10 @@
         <v>131.009995</v>
       </c>
       <c r="C16">
-        <v>49.28292028237826</v>
+        <v>49.28292028237817</v>
       </c>
       <c r="D16">
-        <v>53.82106526303048</v>
+        <v>53.82106526303031</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -16655,10 +16655,10 @@
         <v>129.410004</v>
       </c>
       <c r="C17">
-        <v>45.62322695569958</v>
+        <v>45.62322695569934</v>
       </c>
       <c r="D17">
-        <v>61.66024482563065</v>
+        <v>61.66024482563046</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -16669,10 +16669,10 @@
         <v>132.690002</v>
       </c>
       <c r="C18">
-        <v>66.55704855101348</v>
+        <v>66.55704855101338</v>
       </c>
       <c r="D18">
-        <v>72.77582172612027</v>
+        <v>72.77582172612011</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -16683,10 +16683,10 @@
         <v>133.720001</v>
       </c>
       <c r="C19">
-        <v>72.80045897017874</v>
+        <v>72.80045897017862</v>
       </c>
       <c r="D19">
-        <v>82.66306067746157</v>
+        <v>82.6630606774614</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -16697,10 +16697,10 @@
         <v>134.869995</v>
       </c>
       <c r="C20">
-        <v>78.96995765716842</v>
+        <v>78.96995765716829</v>
       </c>
       <c r="D20">
-        <v>86.02596832839392</v>
+        <v>86.02596832839383</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -16711,10 +16711,10 @@
         <v>136.690002</v>
       </c>
       <c r="C21">
-        <v>96.2187654050374</v>
+        <v>96.21876540503725</v>
       </c>
       <c r="D21">
-        <v>84.97147445732863</v>
+        <v>84.97147445732857</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -16725,10 +16725,10 @@
         <v>131.970001</v>
       </c>
       <c r="C22">
-        <v>82.88918192297578</v>
+        <v>82.88918192297594</v>
       </c>
       <c r="D22">
-        <v>80.31791066134961</v>
+        <v>80.31791066134969</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -16739,7 +16739,7 @@
         <v>130.960007</v>
       </c>
       <c r="C23">
-        <v>75.80647604397257</v>
+        <v>75.80647604397251</v>
       </c>
       <c r="D23">
         <v>81.24949123633506</v>
@@ -16753,10 +16753,10 @@
         <v>131.880005</v>
       </c>
       <c r="C24">
-        <v>82.25807401710041</v>
+        <v>82.25807401710057</v>
       </c>
       <c r="D24">
-        <v>79.14333394825361</v>
+        <v>79.14333394825364</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -16770,7 +16770,7 @@
         <v>85.68392364793206</v>
       </c>
       <c r="D25">
-        <v>82.76024656549139</v>
+        <v>82.76024656549136</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -16784,7 +16784,7 @@
         <v>69.48800417972826</v>
       </c>
       <c r="D26">
-        <v>85.99592832196434</v>
+        <v>85.99592832196431</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -16798,7 +16798,7 @@
         <v>93.10881186881375</v>
       </c>
       <c r="D27">
-        <v>96.11421078911944</v>
+        <v>96.11421078911941</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -16812,7 +16812,7 @@
         <v>95.39096891735093</v>
       </c>
       <c r="D28">
-        <v>88.00708765152478</v>
+        <v>88.00708765152477</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -16823,10 +16823,10 @@
         <v>127.879997</v>
       </c>
       <c r="C29">
-        <v>99.84285158119356</v>
+        <v>99.84285158119354</v>
       </c>
       <c r="D29">
-        <v>80.71111414257128</v>
+        <v>80.71111414257126</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -16840,7 +16840,7 @@
         <v>68.78744245602979</v>
       </c>
       <c r="D30">
-        <v>74.00202290404026</v>
+        <v>74.00202290404025</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -16854,7 +16854,7 @@
         <v>73.50304839049042</v>
       </c>
       <c r="D31">
-        <v>74.00202290404026</v>
+        <v>74.00202290404025</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -16868,7 +16868,7 @@
         <v>79.71557786560048</v>
       </c>
       <c r="D32">
-        <v>81.22011987311342</v>
+        <v>81.22011987311339</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -16882,7 +16882,7 @@
         <v>68.78744245602979</v>
       </c>
       <c r="D33">
-        <v>85.70001426791204</v>
+        <v>85.70001426791202</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -16910,7 +16910,7 @@
         <v>93.15526104999637</v>
       </c>
       <c r="D35">
-        <v>90.6585592698305</v>
+        <v>90.65855926983049</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -16924,7 +16924,7 @@
         <v>86.32709035019917</v>
       </c>
       <c r="D36">
-        <v>91.74528959148431</v>
+        <v>91.74528959148427</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -16938,7 +16938,7 @@
         <v>92.4933264092959</v>
       </c>
       <c r="D37">
-        <v>94.00513307974194</v>
+        <v>94.00513307974188</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -16949,10 +16949,10 @@
         <v>123.080002</v>
       </c>
       <c r="C38">
-        <v>96.41545201495781</v>
+        <v>96.41545201495768</v>
       </c>
       <c r="D38">
-        <v>88.80896658578405</v>
+        <v>88.80896658578399</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -16966,7 +16966,7 @@
         <v>93.10662081497205</v>
       </c>
       <c r="D39">
-        <v>70.85487672596248</v>
+        <v>70.85487672596246</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -16980,7 +16980,7 @@
         <v>76.90482692742222</v>
       </c>
       <c r="D40">
-        <v>52.01792605744211</v>
+        <v>52.01792605744209</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -16994,7 +16994,7 @@
         <v>42.5531824354931</v>
       </c>
       <c r="D41">
-        <v>35.53192506412945</v>
+        <v>35.53192506412947</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -17008,7 +17008,7 @@
         <v>36.59576880941093</v>
       </c>
       <c r="D42">
-        <v>26.53425291066632</v>
+        <v>26.53425291066634</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -17019,10 +17019,10 @@
         <v>115.169998</v>
       </c>
       <c r="C43">
-        <v>27.44682394748419</v>
+        <v>27.44682394748434</v>
       </c>
       <c r="D43">
-        <v>35.97969610442457</v>
+        <v>35.97969610442458</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -17036,7 +17036,7 @@
         <v>15.56016597510373</v>
       </c>
       <c r="D44">
-        <v>52.55218297147697</v>
+        <v>52.55218297147695</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -17050,7 +17050,7 @@
         <v>64.93209839068567</v>
       </c>
       <c r="D45">
-        <v>71.70084034838005</v>
+        <v>71.70084034838004</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -17064,7 +17064,7 @@
         <v>77.16428454864142</v>
       </c>
       <c r="D46">
-        <v>77.48239411257369</v>
+        <v>77.48239411257366</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -17078,7 +17078,7 @@
         <v>73.00613810581301</v>
       </c>
       <c r="D47">
-        <v>81.25427374518621</v>
+        <v>81.2542737451862</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -17092,7 +17092,7 @@
         <v>82.27675968326652</v>
       </c>
       <c r="D48">
-        <v>84.04910030208144</v>
+        <v>84.04910030208141</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -17106,7 +17106,7 @@
         <v>88.47992344647903</v>
       </c>
       <c r="D49">
-        <v>83.64010229131141</v>
+        <v>83.64010229131139</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -17120,7 +17120,7 @@
         <v>81.39061777649869</v>
       </c>
       <c r="D50">
-        <v>81.79959988179051</v>
+        <v>81.79959988179048</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -17148,7 +17148,7 @@
         <v>82.95841621791634</v>
       </c>
       <c r="D52">
-        <v>67.75733484535354</v>
+        <v>67.75733484535353</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -17176,7 +17176,7 @@
         <v>61.34970161550122</v>
       </c>
       <c r="D54">
-        <v>81.05934623684722</v>
+        <v>81.05934623684719</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -17190,7 +17190,7 @@
         <v>92.43901810430461</v>
       </c>
       <c r="D55">
-        <v>78.48247308515293</v>
+        <v>78.48247308515289</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -17201,10 +17201,10 @@
         <v>119.029999</v>
       </c>
       <c r="C56">
-        <v>89.38931899073582</v>
+        <v>89.38931899073572</v>
       </c>
       <c r="D56">
-        <v>54.97797335686035</v>
+        <v>54.97797335686031</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -17246,7 +17246,7 @@
         <v>9.229771434103908</v>
       </c>
       <c r="D59">
-        <v>15.07084588486881</v>
+        <v>15.07084588486882</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -17274,7 +17274,7 @@
         <v>29.53115258704316</v>
       </c>
       <c r="D61">
-        <v>19.98904995798084</v>
+        <v>19.98904995798085</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -17288,7 +17288,7 @@
         <v>0.6997830161103334</v>
       </c>
       <c r="D62">
-        <v>15.92738852562682</v>
+        <v>15.92738852562683</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -17302,7 +17302,7 @@
         <v>29.73621427078906</v>
       </c>
       <c r="D63">
-        <v>22.77175616644865</v>
+        <v>22.77175616644866</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -17344,7 +17344,7 @@
         <v>26.63622729347239</v>
       </c>
       <c r="D66">
-        <v>34.0369416452601</v>
+        <v>34.03694164526011</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -17425,10 +17425,10 @@
         <v>121.190002</v>
       </c>
       <c r="C72">
-        <v>76.29798666489921</v>
+        <v>76.29798666489918</v>
       </c>
       <c r="D72">
-        <v>83.79768406721526</v>
+        <v>83.79768406721523</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -17470,7 +17470,7 @@
         <v>94.10377404844544</v>
       </c>
       <c r="D75">
-        <v>85.7454944639796</v>
+        <v>85.74549446397957</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -17484,7 +17484,7 @@
         <v>81.19015433854561</v>
       </c>
       <c r="D76">
-        <v>77.31419526156506</v>
+        <v>77.31419526156503</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -17495,10 +17495,10 @@
         <v>115.080002</v>
       </c>
       <c r="C77">
-        <v>81.94255500494775</v>
+        <v>81.94255500494765</v>
       </c>
       <c r="D77">
-        <v>80.80256435879896</v>
+        <v>80.80256435879893</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -17512,7 +17512,7 @@
         <v>68.80987644120185</v>
       </c>
       <c r="D78">
-        <v>74.50977473208624</v>
+        <v>74.50977473208627</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -17526,7 +17526,7 @@
         <v>91.65526163024728</v>
       </c>
       <c r="D79">
-        <v>80.58353178771887</v>
+        <v>80.58353178771894</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -17537,10 +17537,10 @@
         <v>113.019997</v>
       </c>
       <c r="C80">
-        <v>63.06418612480963</v>
+        <v>63.06418612480969</v>
       </c>
       <c r="D80">
-        <v>76.96544345019443</v>
+        <v>76.96544345019454</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -17551,10 +17551,10 @@
         <v>116.790001</v>
       </c>
       <c r="C81">
-        <v>87.03114760809976</v>
+        <v>87.03114760809984</v>
       </c>
       <c r="D81">
-        <v>76.99768167062568</v>
+        <v>76.99768167062577</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -17565,10 +17565,10 @@
         <v>115.809998</v>
       </c>
       <c r="C82">
-        <v>80.80099661767402</v>
+        <v>80.80099661767409</v>
       </c>
       <c r="D82">
-        <v>70.70760495218178</v>
+        <v>70.70760495218184</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -17582,7 +17582,7 @@
         <v>63.16090078610336</v>
       </c>
       <c r="D83">
-        <v>61.36014620381459</v>
+        <v>61.36014620381462</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -17596,7 +17596,7 @@
         <v>68.16091745276809</v>
       </c>
       <c r="D84">
-        <v>48.59130750900318</v>
+        <v>48.59130750900321</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -17610,7 +17610,7 @@
         <v>52.75862037257239</v>
       </c>
       <c r="D85">
-        <v>31.07691377682528</v>
+        <v>31.0769137768253</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -17624,7 +17624,7 @@
         <v>24.85438470166915</v>
       </c>
       <c r="D86">
-        <v>21.81448422165839</v>
+        <v>21.81448422165841</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -17635,10 +17635,10 @@
         <v>107.120003</v>
       </c>
       <c r="C87">
-        <v>15.61773625623436</v>
+        <v>15.61773625623434</v>
       </c>
       <c r="D87">
-        <v>20.2001828228505</v>
+        <v>20.20018282285051</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -17652,7 +17652,7 @@
         <v>24.97133170707175</v>
       </c>
       <c r="D88">
-        <v>15.7782155477244</v>
+        <v>15.77821554772441</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -17663,10 +17663,10 @@
         <v>110.080002</v>
       </c>
       <c r="C89">
-        <v>20.01148050524547</v>
+        <v>20.01148050524543</v>
       </c>
       <c r="D89">
-        <v>9.310715691677329</v>
+        <v>9.310715691677343</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -17680,7 +17680,7 @@
         <v>2.351834430856067</v>
       </c>
       <c r="D90">
-        <v>5.177745783570529</v>
+        <v>5.177745783570557</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -17694,7 +17694,7 @@
         <v>5.568832138930533</v>
       </c>
       <c r="D91">
-        <v>10.99375545505137</v>
+        <v>10.99375545505139</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -17708,7 +17708,7 @@
         <v>7.612570780925068</v>
       </c>
       <c r="D92">
-        <v>15.52299364160021</v>
+        <v>15.52299364160024</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -17722,7 +17722,7 @@
         <v>19.79986344529858</v>
       </c>
       <c r="D93">
-        <v>15.36812466544548</v>
+        <v>15.36812466544551</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -17736,7 +17736,7 @@
         <v>19.15654669857707</v>
       </c>
       <c r="D94">
-        <v>11.96738180903803</v>
+        <v>11.96738180903805</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -17750,7 +17750,7 @@
         <v>7.14796385246088</v>
       </c>
       <c r="D95">
-        <v>13.49376695906451</v>
+        <v>13.49376695906454</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -17764,7 +17764,7 @@
         <v>9.597634876076203</v>
       </c>
       <c r="D96">
-        <v>13.48591388425275</v>
+        <v>13.48591388425277</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -17778,7 +17778,7 @@
         <v>23.73570214865654</v>
       </c>
       <c r="D97">
-        <v>22.67749974280169</v>
+        <v>22.67749974280171</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -17792,7 +17792,7 @@
         <v>7.124404628025578</v>
       </c>
       <c r="D98">
-        <v>24.36623290897985</v>
+        <v>24.36623290897987</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -17806,7 +17806,7 @@
         <v>37.17239245172303</v>
       </c>
       <c r="D99">
-        <v>46.52855785815357</v>
+        <v>46.52855785815359</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -17820,7 +17820,7 @@
         <v>28.80190164719101</v>
       </c>
       <c r="D100">
-        <v>66.52110541752826</v>
+        <v>66.52110541752829</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -17831,10 +17831,10 @@
         <v>131.399994</v>
       </c>
       <c r="C101">
-        <v>73.61137947554676</v>
+        <v>73.61137947554674</v>
       </c>
       <c r="D101">
-        <v>87.09797490481299</v>
+        <v>87.09797490481306</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -17848,7 +17848,7 @@
         <v>97.1500351298471</v>
       </c>
       <c r="D102">
-        <v>89.15636819072449</v>
+        <v>89.15636819072461</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -17859,10 +17859,10 @@
         <v>129.039993</v>
       </c>
       <c r="C103">
-        <v>90.53251010904519</v>
+        <v>90.53251010904535</v>
       </c>
       <c r="D103">
-        <v>83.71157250764388</v>
+        <v>83.71157250764405</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -17873,10 +17873,10 @@
         <v>124.807503</v>
       </c>
       <c r="C104">
-        <v>79.7865593332813</v>
+        <v>79.78655933328139</v>
       </c>
       <c r="D104">
-        <v>83.03476060431632</v>
+        <v>83.03476060431645</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -17887,10 +17887,10 @@
         <v>125.010002</v>
       </c>
       <c r="C105">
-        <v>80.81564808060529</v>
+        <v>80.81564808060538</v>
       </c>
       <c r="D105">
-        <v>83.06439511863603</v>
+        <v>83.06439511863617</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -17901,10 +17901,10 @@
         <v>126.522499</v>
       </c>
       <c r="C106">
-        <v>88.50207439906248</v>
+        <v>88.50207439906259</v>
       </c>
       <c r="D106">
-        <v>84.55240303648395</v>
+        <v>84.55240303648412</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -17915,10 +17915,10 @@
         <v>124.824997</v>
       </c>
       <c r="C107">
-        <v>79.87546287624043</v>
+        <v>79.87546287624055</v>
       </c>
       <c r="D107">
-        <v>87.37878092806618</v>
+        <v>87.37878092806631</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -17929,10 +17929,10 @@
         <v>125.857498</v>
       </c>
       <c r="C108">
-        <v>85.27967183414903</v>
+        <v>85.27967183414923</v>
       </c>
       <c r="D108">
-        <v>93.71394409630348</v>
+        <v>93.71394409630359</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -17946,7 +17946,7 @@
         <v>96.98120807380916</v>
       </c>
       <c r="D109">
-        <v>95.65208784158249</v>
+        <v>95.65208784158256</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -17957,10 +17957,10 @@
         <v>118.275002</v>
       </c>
       <c r="C110">
-        <v>98.88095238095232</v>
+        <v>98.88095238095245</v>
       </c>
       <c r="D110">
-        <v>95.87429865091013</v>
+        <v>95.87429865091019</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -17974,7 +17974,7 @@
         <v>91.09410306998606</v>
       </c>
       <c r="D111">
-        <v>94.04246685167276</v>
+        <v>94.04246685167281</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -17988,7 +17988,7 @@
         <v>97.6478405017921</v>
       </c>
       <c r="D112">
-        <v>95.35137590212997</v>
+        <v>95.35137590213002</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -17999,10 +17999,10 @@
         <v>114.607498</v>
       </c>
       <c r="C113">
-        <v>93.38545698324019</v>
+        <v>93.38545698324025</v>
       </c>
       <c r="D113">
-        <v>94.62559390913701</v>
+        <v>94.62559390913707</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -18016,7 +18016,7 @@
         <v>95.0208302213577</v>
       </c>
       <c r="D114">
-        <v>94.9802441017635</v>
+        <v>94.98024410176356</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -18030,7 +18030,7 @@
         <v>95.47049452281324</v>
       </c>
       <c r="D115">
-        <v>89.99441107935017</v>
+        <v>89.9944110793502</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -18044,7 +18044,7 @@
         <v>94.44940756111971</v>
       </c>
       <c r="D116">
-        <v>89.28136845296517</v>
+        <v>89.2813684529652</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -18058,7 +18058,7 @@
         <v>80.06333115411769</v>
       </c>
       <c r="D117">
-        <v>86.77815427809814</v>
+        <v>86.77815427809817</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -18072,7 +18072,7 @@
         <v>93.3313666436582</v>
       </c>
       <c r="D118">
-        <v>92.75090691926091</v>
+        <v>92.75090691926097</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -18086,7 +18086,7 @@
         <v>86.93976503651865</v>
       </c>
       <c r="D119">
-        <v>92.63967778017779</v>
+        <v>92.63967778017785</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -18100,7 +18100,7 @@
         <v>97.98158907760606</v>
       </c>
       <c r="D120">
-        <v>94.06989874147756</v>
+        <v>94.06989874147762</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -18114,7 +18114,7 @@
         <v>92.99767922640882</v>
       </c>
       <c r="D121">
-        <v>90.74137305027597</v>
+        <v>90.74137305027602</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -18128,7 +18128,7 @@
         <v>91.23042792041794</v>
       </c>
       <c r="D122">
-        <v>92.77631192983466</v>
+        <v>92.77631192983472</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -18142,7 +18142,7 @@
         <v>87.99601200400134</v>
       </c>
       <c r="D123">
-        <v>84.08988727132441</v>
+        <v>84.0898872713245</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -18156,7 +18156,7 @@
         <v>99.10249586508489</v>
       </c>
       <c r="D124">
-        <v>72.93550051746955</v>
+        <v>72.93550051746966</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -18167,10 +18167,10 @@
         <v>96.19000200000001</v>
       </c>
       <c r="C125">
-        <v>65.17115394488718</v>
+        <v>65.17115394488727</v>
       </c>
       <c r="D125">
-        <v>52.56708638586809</v>
+        <v>52.56708638586823</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -18181,10 +18181,10 @@
         <v>95.040001</v>
       </c>
       <c r="C126">
-        <v>54.53285174243673</v>
+        <v>54.5328517424368</v>
       </c>
       <c r="D126">
-        <v>48.31175687091099</v>
+        <v>48.31175687091113</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -18195,10 +18195,10 @@
         <v>93.25250200000001</v>
       </c>
       <c r="C127">
-        <v>37.99725347028055</v>
+        <v>37.9972534702806</v>
       </c>
       <c r="D127">
-        <v>40.83410692224461</v>
+        <v>40.83410692224472</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -18209,10 +18209,10 @@
         <v>94.80999799999999</v>
       </c>
       <c r="C128">
-        <v>52.40516540001589</v>
+        <v>52.40516540001596</v>
       </c>
       <c r="D128">
-        <v>31.67160309084627</v>
+        <v>31.67160309084637</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -18223,10 +18223,10 @@
         <v>92.614998</v>
       </c>
       <c r="C129">
-        <v>32.09990189643756</v>
+        <v>32.0999018964376</v>
       </c>
       <c r="D129">
-        <v>37.65077831259816</v>
+        <v>37.65077831259827</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -18237,10 +18237,10 @@
         <v>92.845001</v>
       </c>
       <c r="C130">
-        <v>10.50974197608553</v>
+        <v>10.50974197608555</v>
       </c>
       <c r="D130">
-        <v>49.39414009651915</v>
+        <v>49.39414009651929</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -18251,10 +18251,10 @@
         <v>97.272499</v>
       </c>
       <c r="C131">
-        <v>70.34269106527155</v>
+        <v>70.34269106527167</v>
       </c>
       <c r="D131">
-        <v>73.87514296685453</v>
+        <v>73.87514296685475</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -18265,10 +18265,10 @@
         <v>97</v>
       </c>
       <c r="C132">
-        <v>67.32998724820054</v>
+        <v>67.32998724820065</v>
       </c>
       <c r="D132">
-        <v>73.79661539395831</v>
+        <v>73.79661539395852</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -18276,13 +18276,13 @@
         <v>44032</v>
       </c>
       <c r="B133">
-        <v>98.35749799999999</v>
+        <v>98.35749800000001</v>
       </c>
       <c r="C133">
-        <v>83.95275058709166</v>
+        <v>83.95275058709193</v>
       </c>
       <c r="D133">
-        <v>75.25796304716599</v>
+        <v>75.25796304716617</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -18293,10 +18293,10 @@
         <v>96.327499</v>
       </c>
       <c r="C134">
-        <v>70.10710834658288</v>
+        <v>70.10710834658296</v>
       </c>
       <c r="D134">
-        <v>74.48150399975205</v>
+        <v>74.48150399975218</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -18307,10 +18307,10 @@
         <v>96.522499</v>
       </c>
       <c r="C135">
-        <v>71.71403020782355</v>
+        <v>71.71403020782364</v>
       </c>
       <c r="D135">
-        <v>76.48673372008226</v>
+        <v>76.48673372008237</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -18321,10 +18321,10 @@
         <v>97.724998</v>
       </c>
       <c r="C136">
-        <v>81.62337344484982</v>
+        <v>81.62337344484992</v>
       </c>
       <c r="D136">
-        <v>73.61625486341076</v>
+        <v>73.61625486341087</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -18335,10 +18335,10 @@
         <v>97.057503</v>
       </c>
       <c r="C137">
-        <v>76.12279750757349</v>
+        <v>76.12279750757358</v>
       </c>
       <c r="D137">
-        <v>78.18845962524811</v>
+        <v>78.18845962524824</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -18349,10 +18349,10 @@
         <v>95.477501</v>
       </c>
       <c r="C138">
-        <v>63.10259363780906</v>
+        <v>63.10259363780914</v>
       </c>
       <c r="D138">
-        <v>84.26984331969767</v>
+        <v>84.26984331969777</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -18360,13 +18360,13 @@
         <v>44022</v>
       </c>
       <c r="B139">
-        <v>95.91999799999999</v>
+        <v>95.91999800000001</v>
       </c>
       <c r="C139">
-        <v>95.33998773036187</v>
+        <v>95.33998773036203</v>
       </c>
       <c r="D139">
-        <v>96.44976376102552</v>
+        <v>96.44976376102561</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -18380,7 +18380,7 @@
         <v>94.36694859092214</v>
       </c>
       <c r="D140">
-        <v>92.09732358110436</v>
+        <v>92.09732358110439</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -18394,7 +18394,7 @@
         <v>99.64235496179262</v>
       </c>
       <c r="D141">
-        <v>91.90375604264075</v>
+        <v>91.90375604264079</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -18408,7 +18408,7 @@
         <v>82.2826671905984</v>
       </c>
       <c r="D142">
-        <v>85.09665893195093</v>
+        <v>85.09665893195096</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -18422,7 +18422,7 @@
         <v>93.78624597553132</v>
       </c>
       <c r="D143">
-        <v>84.07612441165919</v>
+        <v>84.07612441165922</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -18436,7 +18436,7 @@
         <v>79.22106362972318</v>
       </c>
       <c r="D144">
-        <v>79.79895619472445</v>
+        <v>79.79895619472448</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -18450,7 +18450,7 @@
         <v>79.22106362972318</v>
       </c>
       <c r="D145">
-        <v>77.84754659395107</v>
+        <v>77.84754659395111</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -18464,7 +18464,7 @@
         <v>80.9547413247271</v>
       </c>
       <c r="D146">
-        <v>69.29206377243786</v>
+        <v>69.29206377243788</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -18478,7 +18478,7 @@
         <v>73.36683482740304</v>
       </c>
       <c r="D147">
-        <v>70.062728730085</v>
+        <v>70.06272873008503</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -18492,7 +18492,7 @@
         <v>53.55461516518351</v>
       </c>
       <c r="D148">
-        <v>70.58506896544604</v>
+        <v>70.5850689654461</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -18503,10 +18503,10 @@
         <v>91.209999</v>
       </c>
       <c r="C149">
-        <v>83.26673619766854</v>
+        <v>83.26673619766855</v>
       </c>
       <c r="D149">
-        <v>82.287791851915</v>
+        <v>82.28779185191505</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -18520,7 +18520,7 @@
         <v>74.9338555334862</v>
       </c>
       <c r="D150">
-        <v>87.35710443095304</v>
+        <v>87.35710443095307</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -18534,7 +18534,7 @@
         <v>88.66278382459038</v>
       </c>
       <c r="D151">
-        <v>89.65349462479496</v>
+        <v>89.65349462479497</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -18548,7 +18548,7 @@
         <v>98.47467393478266</v>
       </c>
       <c r="D152">
-        <v>90.22930230340971</v>
+        <v>90.22930230340972</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -18559,10 +18559,10 @@
         <v>87.43000000000001</v>
       </c>
       <c r="C153">
-        <v>81.8230261150119</v>
+        <v>81.82302611501187</v>
       </c>
       <c r="D153">
-        <v>87.47548147478226</v>
+        <v>87.47548147478227</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -18576,7 +18576,7 @@
         <v>90.39020686043463</v>
       </c>
       <c r="D154">
-        <v>91.24355035482108</v>
+        <v>91.24355035482112</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -18590,7 +18590,7 @@
         <v>90.21321144890032</v>
       </c>
       <c r="D155">
-        <v>85.02583084069336</v>
+        <v>85.02583084069337</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -18604,7 +18604,7 @@
         <v>93.12723275512838</v>
       </c>
       <c r="D156">
-        <v>75.51617825179271</v>
+        <v>75.51617825179272</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -18618,7 +18618,7 @@
         <v>71.73704831805142</v>
       </c>
       <c r="D157">
-        <v>62.71593014381252</v>
+        <v>62.71593014381253</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -18632,7 +18632,7 @@
         <v>61.68425368219837</v>
       </c>
       <c r="D158">
-        <v>70.59341406143579</v>
+        <v>70.59341406143581</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -18646,7 +18646,7 @@
         <v>54.72648843118779</v>
       </c>
       <c r="D159">
-        <v>81.70482048288497</v>
+        <v>81.70482048288498</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -18660,7 +18660,7 @@
         <v>95.36950007092126</v>
       </c>
       <c r="D160">
-        <v>96.56931786352028</v>
+        <v>96.56931786352031</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -18674,7 +18674,7 @@
         <v>95.01847294654591</v>
       </c>
       <c r="D161">
-        <v>97.72395473002274</v>
+        <v>97.72395473002275</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -18688,7 +18688,7 @@
         <v>99.31998057309372</v>
       </c>
       <c r="D162">
-        <v>94.40818952155445</v>
+        <v>94.40818952155439</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -18699,10 +18699,10 @@
         <v>82.875</v>
       </c>
       <c r="C163">
-        <v>98.83341067042862</v>
+        <v>98.83341067042863</v>
       </c>
       <c r="D163">
-        <v>93.2496950751693</v>
+        <v>93.24969507516924</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -18710,13 +18710,13 @@
         <v>43986</v>
       </c>
       <c r="B164">
-        <v>80.58000200000001</v>
+        <v>80.58000199999999</v>
       </c>
       <c r="C164">
-        <v>85.07117732114104</v>
+        <v>85.07117732114081</v>
       </c>
       <c r="D164">
-        <v>92.39012428295956</v>
+        <v>92.3901242829595</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -18730,7 +18730,7 @@
         <v>95.84449723393827</v>
       </c>
       <c r="D165">
-        <v>94.05112038467941</v>
+        <v>94.05112038467944</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -18744,7 +18744,7 @@
         <v>96.25469829379946</v>
       </c>
       <c r="D166">
-        <v>86.69722846441952</v>
+        <v>86.69722846441955</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -18758,7 +18758,7 @@
         <v>90.05416562630059</v>
       </c>
       <c r="D167">
-        <v>79.63661534193376</v>
+        <v>79.63661534193379</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18772,7 +18772,7 @@
         <v>73.78282147315859</v>
       </c>
       <c r="D168">
-        <v>74.44862255513947</v>
+        <v>74.44862255513948</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -18786,7 +18786,7 @@
         <v>75.07285892634216</v>
       </c>
       <c r="D169">
-        <v>73.32040945329601</v>
+        <v>73.32040945329604</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -18800,7 +18800,7 @@
         <v>74.49018726591768</v>
       </c>
       <c r="D170">
-        <v>79.10707259099831</v>
+        <v>79.10707259099836</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -18814,7 +18814,7 @@
         <v>70.39818216762826</v>
       </c>
       <c r="D171">
-        <v>83.71485891544972</v>
+        <v>83.71485891544977</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -18828,7 +18828,7 @@
         <v>92.43284833944911</v>
       </c>
       <c r="D172">
-        <v>93.12902666574722</v>
+        <v>93.12902666574725</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -18839,10 +18839,10 @@
         <v>79.212502</v>
       </c>
       <c r="C173">
-        <v>88.3135462392719</v>
+        <v>88.31354623927191</v>
       </c>
       <c r="D173">
-        <v>89.19949095623194</v>
+        <v>89.19949095623197</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -18856,7 +18856,7 @@
         <v>98.64068541852073</v>
       </c>
       <c r="D174">
-        <v>88.69086605945471</v>
+        <v>88.69086605945472</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -18870,7 +18870,7 @@
         <v>80.64424121090325</v>
       </c>
       <c r="D175">
-        <v>79.51915023226645</v>
+        <v>79.51915023226648</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -18884,7 +18884,7 @@
         <v>86.78767154894021</v>
       </c>
       <c r="D176">
-        <v>77.81649607021821</v>
+        <v>77.81649607021824</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -18898,7 +18898,7 @@
         <v>71.12553793695599</v>
       </c>
       <c r="D177">
-        <v>72.81948829625983</v>
+        <v>72.81948829625986</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -18912,7 +18912,7 @@
         <v>75.5362787247585</v>
       </c>
       <c r="D178">
-        <v>76.28634488897717</v>
+        <v>76.28634488897718</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -18926,7 +18926,7 @@
         <v>71.79664822706506</v>
       </c>
       <c r="D179">
-        <v>82.92476770600963</v>
+        <v>82.92476770600965</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -18940,7 +18940,7 @@
         <v>81.526107715108</v>
       </c>
       <c r="D180">
-        <v>92.16262886270692</v>
+        <v>92.16262886270694</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -18954,7 +18954,7 @@
         <v>95.45154717585588</v>
       </c>
       <c r="D181">
-        <v>97.12111360830637</v>
+        <v>97.12111360830642</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -18965,10 +18965,10 @@
         <v>77.532501</v>
       </c>
       <c r="C182">
-        <v>99.51023169715697</v>
+        <v>99.51023169715698</v>
       </c>
       <c r="D182">
-        <v>96.33629655180361</v>
+        <v>96.33629655180364</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -18982,7 +18982,7 @@
         <v>96.40156195190637</v>
       </c>
       <c r="D183">
-        <v>93.27585925352575</v>
+        <v>93.27585925352577</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -18996,7 +18996,7 @@
         <v>93.09709600634756</v>
       </c>
       <c r="D184">
-        <v>88.67651563766094</v>
+        <v>88.67651563766096</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -19007,10 +19007,10 @@
         <v>74.389999</v>
       </c>
       <c r="C185">
-        <v>90.3289198023234</v>
+        <v>90.32891980232338</v>
       </c>
       <c r="D185">
-        <v>81.11749988655903</v>
+        <v>81.11749988655897</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -19021,10 +19021,10 @@
         <v>73.290001</v>
       </c>
       <c r="C186">
-        <v>82.60353110431197</v>
+        <v>82.60353110431195</v>
       </c>
       <c r="D186">
-        <v>83.50498274820214</v>
+        <v>83.50498274820208</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -19032,13 +19032,13 @@
         <v>43952</v>
       </c>
       <c r="B187">
-        <v>72.26750200000001</v>
+        <v>72.26750199999999</v>
       </c>
       <c r="C187">
-        <v>70.42004875304181</v>
+        <v>70.4200487530416</v>
       </c>
       <c r="D187">
-        <v>86.71403131748968</v>
+        <v>86.71403131748964</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -19049,10 +19049,10 @@
         <v>73.449997</v>
       </c>
       <c r="C188">
-        <v>97.49136838725272</v>
+        <v>97.49136838725271</v>
       </c>
       <c r="D188">
-        <v>84.6445599781414</v>
+        <v>84.64455997814143</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -19066,7 +19066,7 @@
         <v>92.23067681217461</v>
       </c>
       <c r="D189">
-        <v>79.69161040176373</v>
+        <v>79.69161040176374</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -19080,7 +19080,7 @@
         <v>64.21163473499699</v>
       </c>
       <c r="D190">
-        <v>77.75347077373704</v>
+        <v>77.75347077373705</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -19094,7 +19094,7 @@
         <v>82.63251965811962</v>
       </c>
       <c r="D191">
-        <v>80.74082629497178</v>
+        <v>80.7408262949718</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -19108,7 +19108,7 @@
         <v>86.41625792809452</v>
       </c>
       <c r="D192">
-        <v>78.64294317160011</v>
+        <v>78.64294317160012</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -19122,7 +19122,7 @@
         <v>73.17370129870125</v>
       </c>
       <c r="D193">
-        <v>70.26595560334296</v>
+        <v>70.26595560334299</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -19136,7 +19136,7 @@
         <v>76.33887028800463</v>
       </c>
       <c r="D194">
-        <v>71.85978757134109</v>
+        <v>71.85978757134114</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -19150,7 +19150,7 @@
         <v>61.28529522332308</v>
       </c>
       <c r="D195">
-        <v>76.20901117159188</v>
+        <v>76.20901117159191</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -19158,13 +19158,13 @@
         <v>43941</v>
       </c>
       <c r="B196">
-        <v>69.23249799999999</v>
+        <v>69.23249800000001</v>
       </c>
       <c r="C196">
-        <v>77.9551972026956</v>
+        <v>77.95519720269571</v>
       </c>
       <c r="D196">
-        <v>88.10125729029419</v>
+        <v>88.10125729029421</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -19178,7 +19178,7 @@
         <v>89.38654108875697</v>
       </c>
       <c r="D197">
-        <v>92.96980570415225</v>
+        <v>92.96980570415231</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -19192,7 +19192,7 @@
         <v>96.96203357942998</v>
       </c>
       <c r="D198">
-        <v>95.72864980533849</v>
+        <v>95.72864980533855</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -19200,13 +19200,13 @@
         <v>43936</v>
       </c>
       <c r="B199">
-        <v>71.10749799999999</v>
+        <v>71.10749800000001</v>
       </c>
       <c r="C199">
-        <v>92.56084244426987</v>
+        <v>92.56084244426997</v>
       </c>
       <c r="D199">
-        <v>96.36058454398278</v>
+        <v>96.36058454398284</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -19220,7 +19220,7 @@
         <v>97.66307339231571</v>
       </c>
       <c r="D200">
-        <v>96.74744016146559</v>
+        <v>96.74744016146563</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -19248,7 +19248,7 @@
         <v>93.72140929671829</v>
       </c>
       <c r="D202">
-        <v>87.80953369919769</v>
+        <v>87.80953369919773</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -19256,13 +19256,13 @@
         <v>43929</v>
       </c>
       <c r="B203">
-        <v>66.51750200000001</v>
+        <v>66.51750199999999</v>
       </c>
       <c r="C203">
-        <v>90.47215627575099</v>
+        <v>90.4721562757509</v>
       </c>
       <c r="D203">
-        <v>89.4799654499502</v>
+        <v>89.47996544995021</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -19270,13 +19270,13 @@
         <v>43928</v>
       </c>
       <c r="B204">
-        <v>64.85749799999999</v>
+        <v>64.85749800000001</v>
       </c>
       <c r="C204">
-        <v>79.23503552512386</v>
+        <v>79.23503552512396</v>
       </c>
       <c r="D204">
-        <v>78.56877664264107</v>
+        <v>78.56877664264108</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -19301,10 +19301,10 @@
         <v>60.352501</v>
       </c>
       <c r="C206">
-        <v>57.7385898538236</v>
+        <v>57.73858985382354</v>
       </c>
       <c r="D206">
-        <v>54.85945488149818</v>
+        <v>54.85945488149815</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -19318,7 +19318,7 @@
         <v>64.79550357586267</v>
       </c>
       <c r="D207">
-        <v>56.25406674635246</v>
+        <v>56.25406674635249</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -19329,10 +19329,10 @@
         <v>60.227501</v>
       </c>
       <c r="C208">
-        <v>42.0442712148083</v>
+        <v>42.04427121480825</v>
       </c>
       <c r="D208">
-        <v>55.15791992450949</v>
+        <v>55.15791992450951</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -19343,10 +19343,10 @@
         <v>63.572498</v>
       </c>
       <c r="C209">
-        <v>61.92242544838646</v>
+        <v>61.92242544838652</v>
       </c>
       <c r="D209">
-        <v>57.00392500772569</v>
+        <v>57.00392500772573</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -19357,10 +19357,10 @@
         <v>63.702499</v>
       </c>
       <c r="C210">
-        <v>61.50706311033372</v>
+        <v>61.50706311033376</v>
       </c>
       <c r="D210">
-        <v>57.05479629241335</v>
+        <v>57.05479629241336</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -19374,7 +19374,7 @@
         <v>47.58228646445691</v>
       </c>
       <c r="D211">
-        <v>50.57878153517279</v>
+        <v>50.5787815351728</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -19399,10 +19399,10 @@
         <v>61.380001</v>
       </c>
       <c r="C213">
-        <v>42.07901883861204</v>
+        <v>42.07901883861206</v>
       </c>
       <c r="D213">
-        <v>31.48332780745562</v>
+        <v>31.48332780745563</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -19430,7 +19430,7 @@
         <v>12.95296512417357</v>
       </c>
       <c r="D215">
-        <v>8.679301304282854</v>
+        <v>8.679301304282852</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -19444,7 +19444,7 @@
         <v>1.631584210526315</v>
       </c>
       <c r="D216">
-        <v>9.12141671186871</v>
+        <v>9.121416711868706</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -19472,7 +19472,7 @@
         <v>14.27931134693114</v>
       </c>
       <c r="D218">
-        <v>13.2583804269164</v>
+        <v>13.25838042691638</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -19486,7 +19486,7 @@
         <v>22.04269243381802</v>
       </c>
       <c r="D219">
-        <v>26.33789569222508</v>
+        <v>26.33789569222506</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -19497,10 +19497,10 @@
         <v>60.552502</v>
       </c>
       <c r="C220">
-        <v>3.453137500000025</v>
+        <v>3.453137499999981</v>
       </c>
       <c r="D220">
-        <v>19.12679531452978</v>
+        <v>19.12679531452976</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -19514,7 +19514,7 @@
         <v>53.51785714285719</v>
       </c>
       <c r="D221">
-        <v>27.89043489575687</v>
+        <v>27.89043489575689</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -19525,10 +19525,10 @@
         <v>62.057499</v>
       </c>
       <c r="C222">
-        <v>0.4093913007321183</v>
+        <v>0.4093913007321179</v>
       </c>
       <c r="D222">
-        <v>24.19389556749415</v>
+        <v>24.19389556749418</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -19536,13 +19536,13 @@
         <v>43901</v>
       </c>
       <c r="B223">
-        <v>68.85749799999999</v>
+        <v>68.85749800000001</v>
       </c>
       <c r="C223">
-        <v>29.74405624368127</v>
+        <v>29.74405624368136</v>
       </c>
       <c r="D223">
-        <v>28.84166172350258</v>
+        <v>28.84166172350261</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -19584,7 +19584,7 @@
         <v>47.83246325907805</v>
       </c>
       <c r="D226">
-        <v>55.57479977720117</v>
+        <v>55.57479977720118</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -19598,7 +19598,7 @@
         <v>52.50683464862296</v>
       </c>
       <c r="D227">
-        <v>55.13288489631407</v>
+        <v>55.13288489631405</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -19612,7 +19612,7 @@
         <v>66.3851014239025</v>
       </c>
       <c r="D228">
-        <v>57.59767212539088</v>
+        <v>57.59767212539086</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -19620,13 +19620,13 @@
         <v>43893</v>
       </c>
       <c r="B229">
-        <v>72.33000200000001</v>
+        <v>72.33000199999999</v>
       </c>
       <c r="C229">
-        <v>46.50671861641675</v>
+        <v>46.50671861641667</v>
       </c>
       <c r="D229">
-        <v>43.46271220158764</v>
+        <v>43.46271220158761</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -19654,7 +19654,7 @@
         <v>23.98022165249275</v>
       </c>
       <c r="D231">
-        <v>13.62662066030996</v>
+        <v>13.62662066030995</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -19668,7 +19668,7 @@
         <v>1.032060297521541</v>
       </c>
       <c r="D232">
-        <v>7.215094021887327</v>
+        <v>7.215094021887325</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -19682,7 +19682,7 @@
         <v>15.86758003091557</v>
       </c>
       <c r="D233">
-        <v>14.72400261188984</v>
+        <v>14.72400261188989</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -19696,7 +19696,7 @@
         <v>4.745641737224863</v>
       </c>
       <c r="D234">
-        <v>23.87479326825127</v>
+        <v>23.87479326825131</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -19704,13 +19704,13 @@
         <v>43885</v>
       </c>
       <c r="B235">
-        <v>74.54499799999999</v>
+        <v>74.54499800000001</v>
       </c>
       <c r="C235">
-        <v>23.55878606752909</v>
+        <v>23.55878606752924</v>
       </c>
       <c r="D235">
-        <v>46.39956335584292</v>
+        <v>46.39956335584296</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -19738,7 +19738,7 @@
         <v>72.31995199999983</v>
       </c>
       <c r="D237">
-        <v>74.46335590998753</v>
+        <v>74.46335590998751</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -19752,7 +19752,7 @@
         <v>85.59998399999995</v>
       </c>
       <c r="D238">
-        <v>79.91842315876858</v>
+        <v>79.91842315876856</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -19766,7 +19766,7 @@
         <v>65.47013172996274</v>
       </c>
       <c r="D239">
-        <v>80.84274755851294</v>
+        <v>80.84274755851293</v>
       </c>
     </row>
     <row r="240" spans="1:4">
